--- a/mScThesis/bothTypeExcelfile.xlsx
+++ b/mScThesis/bothTypeExcelfile.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MSc\Thesis\Simulation\C++\mScThesis\mScThesis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F62003A-5288-4C96-A227-AB19330AA424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1428" windowWidth="20412" windowHeight="9132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -979,8 +973,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1017,14 +1011,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1071,7 +1057,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1103,27 +1089,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1155,24 +1123,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1348,20 +1298,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A238" sqref="A238:XFD238"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1423,7 +1367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1461,7 +1405,7 @@
         <v>15.05</v>
       </c>
       <c r="N2">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O2">
         <v>7.25</v>
@@ -1469,17 +1413,11 @@
       <c r="Q2">
         <v>19.80339285714286</v>
       </c>
-      <c r="R2">
-        <v>305.25000000000011</v>
-      </c>
-      <c r="S2">
-        <v>62.304285714285712</v>
-      </c>
       <c r="T2">
-        <v>65.354285714285709</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.35428571428571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1517,25 +1455,19 @@
         <v>11</v>
       </c>
       <c r="N3">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O3">
         <v>10.1</v>
       </c>
       <c r="Q3">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R3">
-        <v>190.2</v>
-      </c>
-      <c r="S3">
-        <v>59.683571428571433</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T3">
-        <v>59.683571428571433</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>59.68357142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1564,25 +1496,19 @@
         <v>5</v>
       </c>
       <c r="M4">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O4">
         <v>16.8</v>
       </c>
       <c r="P4">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R4">
-        <v>83.799999999999983</v>
-      </c>
-      <c r="S4">
-        <v>34.311607142857142</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T4">
-        <v>77.249999999999986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>77.24999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1620,7 +1546,7 @@
         <v>11.2</v>
       </c>
       <c r="N5">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O5">
         <v>9</v>
@@ -1628,17 +1554,11 @@
       <c r="Q5">
         <v>19.34767857142857</v>
       </c>
-      <c r="R5">
-        <v>54.662499999999987</v>
-      </c>
-      <c r="S5">
-        <v>33.943928571428572</v>
-      </c>
       <c r="T5">
-        <v>62.136607142857137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.13660714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1676,25 +1596,19 @@
         <v>14.45</v>
       </c>
       <c r="N6">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O6">
         <v>7.35</v>
       </c>
       <c r="Q6">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R6">
-        <v>280.66250000000002</v>
-      </c>
-      <c r="S6">
-        <v>62.78660714285715</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T6">
-        <v>62.618928571428569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.61892857142857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1723,25 +1637,19 @@
         <v>7.35</v>
       </c>
       <c r="M7">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O7">
         <v>10</v>
       </c>
       <c r="P7">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R7">
-        <v>248.875</v>
-      </c>
-      <c r="S7">
-        <v>62.618928571428569</v>
+        <v>14.98125</v>
       </c>
       <c r="T7">
         <v>47.3125</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1785,19 +1693,13 @@
         <v>8</v>
       </c>
       <c r="Q8">
-        <v>7.4689285714285711</v>
-      </c>
-      <c r="R8">
-        <v>81.399999999999991</v>
-      </c>
-      <c r="S8">
-        <v>32.161607142857143</v>
+        <v>7.468928571428571</v>
       </c>
       <c r="T8">
-        <v>36.611607142857139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>36.61160714285714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1826,25 +1728,19 @@
         <v>6</v>
       </c>
       <c r="M9">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O9">
         <v>16.7</v>
       </c>
       <c r="P9">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R9">
-        <v>80.499999999999986</v>
-      </c>
-      <c r="S9">
-        <v>35.311607142857142</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T9">
-        <v>78.149999999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>78.14999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1882,25 +1778,19 @@
         <v>8.5</v>
       </c>
       <c r="N10">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O10">
         <v>10.95</v>
       </c>
       <c r="Q10">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R10">
-        <v>355.23750000000001</v>
-      </c>
-      <c r="S10">
-        <v>87.135714285714286</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T10">
-        <v>68.013035714285721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68.01303571428572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1929,25 +1819,19 @@
         <v>11.2</v>
       </c>
       <c r="M11">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O11">
         <v>10</v>
       </c>
       <c r="P11">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R11">
-        <v>51.462499999999999</v>
-      </c>
-      <c r="S11">
-        <v>31.29392857142857</v>
+        <v>14.98125</v>
       </c>
       <c r="T11">
-        <v>51.162499999999987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>51.16249999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1991,19 +1875,13 @@
         <v>5</v>
       </c>
       <c r="Q12">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R12">
-        <v>86.649999999999991</v>
-      </c>
-      <c r="S12">
-        <v>33.561607142857142</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T12">
-        <v>66.130535714285713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.13053571428571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2041,25 +1919,19 @@
         <v>11.2</v>
       </c>
       <c r="N13">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O13">
         <v>8.4</v>
       </c>
       <c r="Q13">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R13">
-        <v>410.01249999999999</v>
-      </c>
-      <c r="S13">
-        <v>87.521071428571418</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T13">
-        <v>63.713035714285724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.71303571428572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2088,25 +1960,19 @@
         <v>11</v>
       </c>
       <c r="M14">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O14">
         <v>20.8</v>
       </c>
       <c r="P14">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R14">
-        <v>343.03750000000008</v>
-      </c>
-      <c r="S14">
-        <v>84.985714285714266</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T14">
-        <v>87.249999999999986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>87.24999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2144,25 +2010,19 @@
         <v>8.75</v>
       </c>
       <c r="N15">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O15">
         <v>8</v>
       </c>
       <c r="Q15">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R15">
-        <v>195.3</v>
-      </c>
-      <c r="S15">
-        <v>55.333571428571432</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T15">
-        <v>58.083571428571432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>58.08357142857143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2194,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O16">
         <v>10</v>
@@ -2202,17 +2062,11 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>40.424999999999997</v>
-      </c>
-      <c r="S16">
-        <v>23.387499999999999</v>
-      </c>
       <c r="T16">
-        <v>20.487500000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>20.4875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2241,25 +2095,19 @@
         <v>10.45</v>
       </c>
       <c r="M17">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O17">
         <v>11</v>
       </c>
       <c r="P17">
-        <v>2.2374999999999998</v>
-      </c>
-      <c r="R17">
-        <v>33.024999999999999</v>
-      </c>
-      <c r="S17">
-        <v>20.987500000000001</v>
+        <v>2.2375</v>
       </c>
       <c r="T17">
-        <v>25.925000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>25.925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2303,19 +2151,13 @@
         <v>9.1</v>
       </c>
       <c r="Q18">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R18">
-        <v>412.61250000000001</v>
-      </c>
-      <c r="S18">
-        <v>86.821071428571429</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T18">
         <v>65.43053571428571</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2359,19 +2201,13 @@
         <v>6</v>
       </c>
       <c r="Q19">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R19">
-        <v>413.01249999999999</v>
-      </c>
-      <c r="S19">
-        <v>84.121071428571426</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T19">
-        <v>65.130535714285713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.13053571428571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2408,17 +2244,11 @@
       <c r="P20">
         <v>82</v>
       </c>
-      <c r="R20">
-        <v>186.15</v>
-      </c>
-      <c r="S20">
-        <v>58.383571428571429</v>
-      </c>
       <c r="T20">
         <v>181.2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2456,25 +2286,19 @@
         <v>8.75</v>
       </c>
       <c r="N21">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O21">
         <v>7.25</v>
       </c>
       <c r="Q21">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R21">
-        <v>63.662499999999987</v>
-      </c>
-      <c r="S21">
-        <v>40.193928571428572</v>
+        <v>18.43625</v>
       </c>
       <c r="T21">
-        <v>61.001249999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.00125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2512,25 +2336,19 @@
         <v>12.55</v>
       </c>
       <c r="N22">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O22">
         <v>7.7</v>
       </c>
       <c r="Q22">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R22">
-        <v>222.38749999999999</v>
-      </c>
-      <c r="S22">
-        <v>64.501249999999999</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T22">
-        <v>58.833571428571439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>58.83357142857144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2559,25 +2377,19 @@
         <v>10.1</v>
       </c>
       <c r="M23">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O23">
         <v>16</v>
       </c>
       <c r="P23">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R23">
-        <v>187.1</v>
-      </c>
-      <c r="S23">
-        <v>58.833571428571439</v>
+        <v>14.98125</v>
       </c>
       <c r="T23">
         <v>56.0625</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2621,19 +2433,13 @@
         <v>7</v>
       </c>
       <c r="Q24">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R24">
-        <v>406.3125</v>
-      </c>
-      <c r="S24">
-        <v>85.771071428571418</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T24">
-        <v>64.380535714285713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.38053571428571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2670,17 +2476,11 @@
       <c r="P25">
         <v>126.83125</v>
       </c>
-      <c r="R25">
-        <v>274.66250000000002</v>
-      </c>
-      <c r="S25">
-        <v>62.136607142857137</v>
-      </c>
       <c r="T25">
-        <v>273.66250000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>273.6625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2724,19 +2524,13 @@
         <v>6.4</v>
       </c>
       <c r="Q26">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R26">
-        <v>58.312499999999993</v>
-      </c>
-      <c r="S26">
-        <v>33.193928571428572</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T26">
-        <v>66.980535714285708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.98053571428571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -2780,19 +2574,13 @@
         <v>6</v>
       </c>
       <c r="Q27">
-        <v>7.4689285714285711</v>
-      </c>
-      <c r="R27">
-        <v>423.86250000000001</v>
-      </c>
-      <c r="S27">
-        <v>90.921071428571423</v>
+        <v>7.468928571428571</v>
       </c>
       <c r="T27">
-        <v>34.011607142857137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>34.01160714285714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -2821,25 +2609,19 @@
         <v>7</v>
       </c>
       <c r="M28">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O28">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="P28">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R28">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="S28">
-        <v>30.16160714285714</v>
+        <v>14.98125</v>
       </c>
       <c r="T28">
-        <v>55.862499999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>55.8625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2871,10 +2653,10 @@
         <v>15</v>
       </c>
       <c r="K29">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L29">
-        <v>18.649999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="N29">
         <v>23.66339285714286</v>
@@ -2883,19 +2665,13 @@
         <v>4</v>
       </c>
       <c r="Q29">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R29">
-        <v>185</v>
-      </c>
-      <c r="S29">
-        <v>59.48357142857143</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T29">
         <v>67.82178571428571</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2933,25 +2709,19 @@
         <v>9</v>
       </c>
       <c r="N30">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O30">
         <v>7</v>
       </c>
       <c r="Q30">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R30">
-        <v>179</v>
-      </c>
-      <c r="S30">
-        <v>55.133571428571443</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T30">
-        <v>54.583571428571432</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>54.58357142857143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2988,17 +2758,11 @@
       <c r="P31">
         <v>82</v>
       </c>
-      <c r="R31">
-        <v>373.97500000000002</v>
-      </c>
-      <c r="S31">
-        <v>89.153392857142848</v>
-      </c>
       <c r="T31">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -3036,7 +2800,7 @@
         <v>16.7</v>
       </c>
       <c r="N32">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O32">
         <v>7</v>
@@ -3044,17 +2808,11 @@
       <c r="Q32">
         <v>23.21339285714286</v>
       </c>
-      <c r="R32">
-        <v>134.125</v>
-      </c>
-      <c r="S32">
-        <v>42.596964285714293</v>
-      </c>
       <c r="T32">
-        <v>70.989285714285714</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70.98928571428571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3098,19 +2856,13 @@
         <v>6</v>
       </c>
       <c r="Q33">
-        <v>8.3803571428571431</v>
-      </c>
-      <c r="R33">
-        <v>137.07499999999999</v>
-      </c>
-      <c r="S33">
-        <v>37.946964285714287</v>
+        <v>8.380357142857143</v>
       </c>
       <c r="T33">
-        <v>37.296964285714282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>37.29696428571428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3139,25 +2891,19 @@
         <v>10.45</v>
       </c>
       <c r="M34">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O34">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="P34">
-        <v>53.212499999999999</v>
-      </c>
-      <c r="R34">
-        <v>441.7</v>
-      </c>
-      <c r="S34">
-        <v>90.438749999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="T34">
-        <v>134.27500000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>134.275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -3195,25 +2941,19 @@
         <v>10.65</v>
       </c>
       <c r="N35">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O35">
         <v>8.75</v>
       </c>
       <c r="Q35">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R35">
-        <v>34.524999999999999</v>
-      </c>
-      <c r="S35">
-        <v>21.487500000000001</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T35">
-        <v>63.513035714285706</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.51303571428571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -3251,25 +2991,19 @@
         <v>9.5</v>
       </c>
       <c r="N36">
-        <v>11.678571428571431</v>
+        <v>11.67857142857143</v>
       </c>
       <c r="O36">
         <v>5</v>
       </c>
       <c r="Q36">
-        <v>8.8360714285714295</v>
-      </c>
-      <c r="R36">
-        <v>344.08749999999998</v>
-      </c>
-      <c r="S36">
-        <v>82.535714285714278</v>
+        <v>8.836071428571429</v>
       </c>
       <c r="T36">
-        <v>36.814642857142857</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>36.81464285714286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -3298,25 +3032,19 @@
         <v>10.95</v>
       </c>
       <c r="M37">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O37">
         <v>12</v>
       </c>
       <c r="P37">
-        <v>2.2374999999999998</v>
-      </c>
-      <c r="R37">
-        <v>159.5625</v>
-      </c>
-      <c r="S37">
-        <v>36.26464285714286</v>
+        <v>2.2375</v>
       </c>
       <c r="T37">
-        <v>27.425000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>27.425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -3354,25 +3082,19 @@
         <v>5</v>
       </c>
       <c r="N38">
-        <v>12.311071428571431</v>
+        <v>12.31107142857143</v>
       </c>
       <c r="O38">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q38">
         <v>9.262321428571429</v>
       </c>
-      <c r="R38">
-        <v>28.625</v>
-      </c>
-      <c r="S38">
-        <v>25.1875</v>
-      </c>
       <c r="T38">
-        <v>40.723392857142848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40.72339285714285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -3410,25 +3132,19 @@
         <v>13.9</v>
       </c>
       <c r="N39">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O39">
         <v>7</v>
       </c>
       <c r="Q39">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R39">
-        <v>165.85</v>
-      </c>
-      <c r="S39">
-        <v>35.273392857142859</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T39">
         <v>59.48357142857143</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -3457,25 +3173,19 @@
         <v>8.25</v>
       </c>
       <c r="M40">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O40">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="P40">
-        <v>2.2374999999999998</v>
-      </c>
-      <c r="R40">
-        <v>185</v>
-      </c>
-      <c r="S40">
-        <v>53.633571428571443</v>
+        <v>2.2375</v>
       </c>
       <c r="T40">
-        <v>28.824999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>28.825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3507,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O41">
         <v>7</v>
@@ -3515,17 +3225,11 @@
       <c r="Q41">
         <v>0</v>
       </c>
-      <c r="R41">
-        <v>25.475000000000001</v>
-      </c>
-      <c r="S41">
-        <v>20.887499999999999</v>
-      </c>
       <c r="T41">
-        <v>15.237500000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>15.2375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>60</v>
       </c>
@@ -3557,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O42">
         <v>6</v>
@@ -3565,17 +3269,11 @@
       <c r="Q42">
         <v>0</v>
       </c>
-      <c r="R42">
-        <v>28.774999999999999</v>
-      </c>
-      <c r="S42">
-        <v>22.637499999999999</v>
-      </c>
       <c r="T42">
         <v>15.5875</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -3604,25 +3302,19 @@
         <v>11.4</v>
       </c>
       <c r="M43">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O43">
         <v>10</v>
       </c>
       <c r="P43">
-        <v>2.2374999999999998</v>
-      </c>
-      <c r="R43">
-        <v>26.475000000000001</v>
-      </c>
-      <c r="S43">
-        <v>16.737500000000001</v>
+        <v>2.2375</v>
       </c>
       <c r="T43">
         <v>25.875</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>62</v>
       </c>
@@ -3660,25 +3352,19 @@
         <v>5</v>
       </c>
       <c r="N44">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O44">
         <v>9</v>
       </c>
       <c r="Q44">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R44">
-        <v>50.962499999999999</v>
-      </c>
-      <c r="S44">
-        <v>38.193928571428572</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T44">
-        <v>63.918928571428573</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.91892857142857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3722,19 +3408,13 @@
         <v>7</v>
       </c>
       <c r="Q45">
-        <v>8.3803571428571431</v>
-      </c>
-      <c r="R45">
-        <v>127.425</v>
-      </c>
-      <c r="S45">
-        <v>39.296964285714282</v>
+        <v>8.380357142857143</v>
       </c>
       <c r="T45">
-        <v>38.846964285714293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+        <v>38.84696428571429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -3763,25 +3443,19 @@
         <v>8.35</v>
       </c>
       <c r="M46">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O46">
         <v>14</v>
       </c>
       <c r="P46">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R46">
-        <v>254.72499999999999</v>
-      </c>
-      <c r="S46">
-        <v>56.818928571428572</v>
+        <v>14.98125</v>
       </c>
       <c r="T46">
         <v>52.3125</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -3825,19 +3499,13 @@
         <v>7</v>
       </c>
       <c r="Q47">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R47">
-        <v>134.72499999999999</v>
-      </c>
-      <c r="S47">
-        <v>34.14696428571429</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T47">
-        <v>64.480535714285708</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.48053571428571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -3872,10 +3540,10 @@
         <v>7.5</v>
       </c>
       <c r="L48">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="N48">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O48">
         <v>7.7</v>
@@ -3883,17 +3551,11 @@
       <c r="Q48">
         <v>19.80339285714286</v>
       </c>
-      <c r="R48">
-        <v>316.5</v>
-      </c>
-      <c r="S48">
-        <v>67.704285714285717</v>
-      </c>
       <c r="T48">
-        <v>60.204285714285717</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.20428571428572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -3922,25 +3584,19 @@
         <v>11.5</v>
       </c>
       <c r="M49">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O49">
         <v>14</v>
       </c>
       <c r="P49">
-        <v>53.212499999999999</v>
-      </c>
-      <c r="R49">
-        <v>410.4375</v>
-      </c>
-      <c r="S49">
-        <v>85.871071428571426</v>
+        <v>53.2125</v>
       </c>
       <c r="T49">
-        <v>131.92500000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+        <v>131.925</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -3978,25 +3634,19 @@
         <v>5</v>
       </c>
       <c r="N50">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O50">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Q50">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R50">
-        <v>193.35</v>
-      </c>
-      <c r="S50">
-        <v>58.633571428571443</v>
+        <v>18.43625</v>
       </c>
       <c r="T50">
-        <v>55.751249999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+        <v>55.75125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>69</v>
       </c>
@@ -4034,25 +3684,19 @@
         <v>11.95</v>
       </c>
       <c r="N51">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O51">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q51">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R51">
-        <v>216.9375</v>
-      </c>
-      <c r="S51">
-        <v>62.401249999999997</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T51">
-        <v>60.333571428571418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.33357142857142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -4089,17 +3733,11 @@
       <c r="P52">
         <v>40.46875</v>
       </c>
-      <c r="R52">
-        <v>95.9375</v>
-      </c>
-      <c r="S52">
-        <v>33.779285714285713</v>
-      </c>
       <c r="T52">
         <v>101.6375</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -4128,25 +3766,19 @@
         <v>9.75</v>
       </c>
       <c r="M53">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O53">
         <v>16.5</v>
       </c>
       <c r="P53">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R53">
-        <v>59.012500000000003</v>
-      </c>
-      <c r="S53">
-        <v>32.043928571428573</v>
+        <v>14.98125</v>
       </c>
       <c r="T53">
-        <v>56.212499999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+        <v>56.2125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>72</v>
       </c>
@@ -4190,19 +3822,13 @@
         <v>6</v>
       </c>
       <c r="Q54">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R54">
-        <v>84.762500000000003</v>
-      </c>
-      <c r="S54">
-        <v>35.370357142857138</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T54">
-        <v>63.730535714285708</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.73053571428571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -4246,19 +3872,13 @@
         <v>7.7</v>
       </c>
       <c r="Q55">
-        <v>7.8951785714285716</v>
-      </c>
-      <c r="R55">
-        <v>410.11250000000001</v>
-      </c>
-      <c r="S55">
-        <v>89.071071428571429</v>
+        <v>7.895178571428572</v>
       </c>
       <c r="T55">
-        <v>36.420357142857142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+        <v>36.42035714285714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -4287,25 +3907,19 @@
         <v>14.55</v>
       </c>
       <c r="M56">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O56">
         <v>18.2</v>
       </c>
       <c r="P56">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R56">
-        <v>81.899999999999991</v>
-      </c>
-      <c r="S56">
-        <v>37.761607142857137</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T56">
-        <v>88.199999999999989</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+        <v>88.19999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -4343,7 +3957,7 @@
         <v>12.65</v>
       </c>
       <c r="N57">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O57">
         <v>5</v>
@@ -4351,17 +3965,11 @@
       <c r="Q57">
         <v>19.34767857142857</v>
       </c>
-      <c r="R57">
-        <v>226.23750000000001</v>
-      </c>
-      <c r="S57">
-        <v>61.651249999999997</v>
-      </c>
       <c r="T57">
-        <v>59.586607142857147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+        <v>59.58660714285715</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -4399,25 +4007,19 @@
         <v>13.95</v>
       </c>
       <c r="N58">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O58">
         <v>11.15</v>
       </c>
       <c r="Q58">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R58">
-        <v>130.77500000000001</v>
-      </c>
-      <c r="S58">
-        <v>31.64696428571429</v>
+        <v>18.43625</v>
       </c>
       <c r="T58">
         <v>64.80125000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -4446,25 +4048,19 @@
         <v>12.55</v>
       </c>
       <c r="M59">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O59">
         <v>10</v>
       </c>
       <c r="P59">
-        <v>53.212499999999999</v>
-      </c>
-      <c r="R59">
-        <v>269.48750000000001</v>
-      </c>
-      <c r="S59">
-        <v>60.886607142857137</v>
+        <v>53.2125</v>
       </c>
       <c r="T59">
-        <v>128.97499999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+        <v>128.975</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -4499,28 +4095,22 @@
         <v>9.75</v>
       </c>
       <c r="L60">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="N60">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O60">
         <v>9.4</v>
       </c>
       <c r="Q60">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R60">
-        <v>249.77500000000001</v>
-      </c>
-      <c r="S60">
-        <v>60.21892857142857</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T60">
         <v>59.96892857142857</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -4552,31 +4142,25 @@
         <v>15</v>
       </c>
       <c r="K61">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L61">
         <v>8.35</v>
       </c>
       <c r="N61">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O61">
         <v>5</v>
       </c>
       <c r="Q61">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R61">
-        <v>215.03749999999999</v>
-      </c>
-      <c r="S61">
-        <v>53.051250000000003</v>
+        <v>18.43625</v>
       </c>
       <c r="T61">
-        <v>53.901249999999997</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+        <v>53.90125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -4605,25 +4189,19 @@
         <v>12.75</v>
       </c>
       <c r="M62">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O62">
         <v>16</v>
       </c>
       <c r="P62">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R62">
-        <v>53.962499999999999</v>
-      </c>
-      <c r="S62">
-        <v>31.29392857142857</v>
+        <v>14.98125</v>
       </c>
       <c r="T62">
-        <v>58.712499999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+        <v>58.7125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -4661,7 +4239,7 @@
         <v>13.75</v>
       </c>
       <c r="N63">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O63">
         <v>6</v>
@@ -4669,17 +4247,11 @@
       <c r="Q63">
         <v>23.21339285714286</v>
       </c>
-      <c r="R63">
-        <v>447.75000000000011</v>
-      </c>
-      <c r="S63">
-        <v>90.038749999999993</v>
-      </c>
       <c r="T63">
-        <v>67.039285714285711</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67.03928571428571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -4717,25 +4289,19 @@
         <v>10.5</v>
       </c>
       <c r="N64">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O64">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q64">
         <v>19.80339285714286</v>
       </c>
-      <c r="R64">
-        <v>215.88749999999999</v>
-      </c>
-      <c r="S64">
-        <v>61.951250000000002</v>
-      </c>
       <c r="T64">
-        <v>63.354285714285709</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.35428571428571</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -4764,25 +4330,19 @@
         <v>8.25</v>
       </c>
       <c r="M65">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="O65">
         <v>15.4</v>
       </c>
       <c r="P65">
-        <v>96.393750000000011</v>
-      </c>
-      <c r="R65">
-        <v>315.15000000000009</v>
-      </c>
-      <c r="S65">
-        <v>65.054285714285712</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="T65">
         <v>216.4375</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -4826,19 +4386,13 @@
         <v>7.35</v>
       </c>
       <c r="Q66">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R66">
-        <v>412.61250000000001</v>
-      </c>
-      <c r="S66">
-        <v>84.771071428571418</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T66">
-        <v>61.280535714285698</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.2805357142857</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -4867,25 +4421,19 @@
         <v>11.25</v>
       </c>
       <c r="M67">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O67">
         <v>12</v>
       </c>
       <c r="P67">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R67">
-        <v>73.449999999999989</v>
-      </c>
-      <c r="S67">
-        <v>35.511607142857137</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T67">
-        <v>78.699999999999989</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+        <v>78.69999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>86</v>
       </c>
@@ -4929,19 +4477,13 @@
         <v>7</v>
       </c>
       <c r="Q68">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R68">
-        <v>374.02499999999998</v>
-      </c>
-      <c r="S68">
-        <v>87.903392857142848</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T68">
         <v>66.57178571428571</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>87</v>
       </c>
@@ -4970,25 +4512,19 @@
         <v>4</v>
       </c>
       <c r="M69">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O69">
         <v>16.7</v>
       </c>
       <c r="P69">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R69">
-        <v>81.849999999999994</v>
-      </c>
-      <c r="S69">
-        <v>38.21160714285714</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T69">
-        <v>76.149999999999991</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+        <v>76.14999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -5026,25 +4562,19 @@
         <v>8.85</v>
       </c>
       <c r="N70">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O70">
         <v>7</v>
       </c>
       <c r="Q70">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R70">
-        <v>185</v>
-      </c>
-      <c r="S70">
-        <v>57.583571428571432</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T70">
-        <v>54.433571428571433</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+        <v>54.43357142857143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>89</v>
       </c>
@@ -5076,31 +4606,25 @@
         <v>15</v>
       </c>
       <c r="K71">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L71">
         <v>11.6</v>
       </c>
       <c r="N71">
-        <v>11.678571428571431</v>
+        <v>11.67857142857143</v>
       </c>
       <c r="O71">
         <v>7.35</v>
       </c>
       <c r="Q71">
-        <v>8.8360714285714295</v>
-      </c>
-      <c r="R71">
-        <v>157.26249999999999</v>
-      </c>
-      <c r="S71">
-        <v>36.364642857142861</v>
+        <v>8.836071428571429</v>
       </c>
       <c r="T71">
-        <v>39.464642857142863</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39.46464285714286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -5129,25 +4653,19 @@
         <v>13.55</v>
       </c>
       <c r="M72">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O72">
         <v>21.7</v>
       </c>
       <c r="P72">
-        <v>2.2374999999999998</v>
-      </c>
-      <c r="R72">
-        <v>37.024999999999999</v>
-      </c>
-      <c r="S72">
-        <v>20.337499999999999</v>
+        <v>2.2375</v>
       </c>
       <c r="T72">
-        <v>39.725000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39.725</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -5179,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L73">
         <v>9.75</v>
@@ -5191,19 +4709,13 @@
         <v>6</v>
       </c>
       <c r="Q73">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R73">
-        <v>367.92500000000001</v>
-      </c>
-      <c r="S73">
-        <v>82.253392857142856</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T73">
-        <v>60.921785714285718</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.92178571428572</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -5241,25 +4753,19 @@
         <v>14.65</v>
       </c>
       <c r="N74">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O74">
         <v>7.25</v>
       </c>
       <c r="Q74">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R74">
-        <v>68.712500000000006</v>
-      </c>
-      <c r="S74">
-        <v>39.09392857142857</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T74">
         <v>60.48357142857143</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -5288,25 +4794,19 @@
         <v>10.25</v>
       </c>
       <c r="M75">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O75">
         <v>25.6</v>
       </c>
       <c r="P75">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R75">
-        <v>194.3</v>
-      </c>
-      <c r="S75">
-        <v>60.48357142857143</v>
+        <v>14.98125</v>
       </c>
       <c r="T75">
         <v>65.8125</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -5344,7 +4844,7 @@
         <v>9.1</v>
       </c>
       <c r="N76">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O76">
         <v>10.45</v>
@@ -5352,17 +4852,11 @@
       <c r="Q76">
         <v>19.80339285714286</v>
       </c>
-      <c r="R76">
-        <v>273.50000000000011</v>
-      </c>
-      <c r="S76">
-        <v>58.097857142857137</v>
-      </c>
       <c r="T76">
-        <v>62.604285714285709</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.60428571428571</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -5400,7 +4894,7 @@
         <v>10.4</v>
       </c>
       <c r="N77">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O77">
         <v>10.25</v>
@@ -5408,17 +4902,11 @@
       <c r="Q77">
         <v>19.80339285714286</v>
       </c>
-      <c r="R77">
-        <v>317.10000000000002</v>
-      </c>
-      <c r="S77">
-        <v>60.954285714285717</v>
-      </c>
       <c r="T77">
-        <v>66.954285714285717</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.95428571428572</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>47</v>
       </c>
@@ -5444,28 +4932,22 @@
         <v>15</v>
       </c>
       <c r="K78">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M78">
-        <v>138.58750000000001</v>
+        <v>138.5875</v>
       </c>
       <c r="O78">
         <v>8</v>
       </c>
       <c r="P78">
-        <v>138.58750000000001</v>
-      </c>
-      <c r="R78">
-        <v>322.45</v>
-      </c>
-      <c r="S78">
-        <v>63.704285714285717</v>
+        <v>138.5875</v>
       </c>
       <c r="T78">
         <v>293.875</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -5503,25 +4985,19 @@
         <v>10.25</v>
       </c>
       <c r="N79">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O79">
         <v>8.4</v>
       </c>
       <c r="Q79">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R79">
-        <v>192.35</v>
-      </c>
-      <c r="S79">
-        <v>57.23357142857143</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T79">
         <v>57.23357142857143</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>97</v>
       </c>
@@ -5550,25 +5026,19 @@
         <v>13.4</v>
       </c>
       <c r="M80">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O80">
         <v>20</v>
       </c>
       <c r="P80">
-        <v>53.212499999999999</v>
-      </c>
-      <c r="R80">
-        <v>136.42500000000001</v>
-      </c>
-      <c r="S80">
-        <v>35.39696428571429</v>
+        <v>53.2125</v>
       </c>
       <c r="T80">
-        <v>139.82499999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+        <v>139.825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>98</v>
       </c>
@@ -5606,7 +5076,7 @@
         <v>11.4</v>
       </c>
       <c r="N81">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O81">
         <v>5</v>
@@ -5614,17 +5084,11 @@
       <c r="Q81">
         <v>19.34767857142857</v>
       </c>
-      <c r="R81">
-        <v>269.48750000000001</v>
-      </c>
-      <c r="S81">
-        <v>58.336607142857147</v>
-      </c>
       <c r="T81">
-        <v>61.436607142857142</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.43660714285714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -5662,7 +5126,7 @@
         <v>13.15</v>
       </c>
       <c r="N82">
-        <v>12.311071428571431</v>
+        <v>12.31107142857143</v>
       </c>
       <c r="O82">
         <v>6</v>
@@ -5670,17 +5134,11 @@
       <c r="Q82">
         <v>9.262321428571429</v>
       </c>
-      <c r="R82">
-        <v>105.28749999999999</v>
-      </c>
-      <c r="S82">
-        <v>35.829285714285717</v>
-      </c>
       <c r="T82">
-        <v>40.723392857142848</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40.72339285714285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>100</v>
       </c>
@@ -5717,17 +5175,11 @@
       <c r="P83">
         <v>40.46875</v>
       </c>
-      <c r="R83">
-        <v>162.9</v>
-      </c>
-      <c r="S83">
-        <v>40.673392857142858</v>
-      </c>
       <c r="T83">
         <v>97.9375</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>101</v>
       </c>
@@ -5765,25 +5217,19 @@
         <v>16.45</v>
       </c>
       <c r="N84">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O84">
         <v>8</v>
       </c>
       <c r="Q84">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R84">
-        <v>341.83749999999998</v>
-      </c>
-      <c r="S84">
-        <v>89.835714285714275</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T84">
-        <v>68.563035714285718</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68.56303571428572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>102</v>
       </c>
@@ -5820,17 +5266,11 @@
       <c r="P85">
         <v>142.875</v>
       </c>
-      <c r="R85">
-        <v>311.2</v>
-      </c>
-      <c r="S85">
-        <v>63.15428571428572</v>
-      </c>
       <c r="T85">
-        <v>314.90000000000009</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+        <v>314.9000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -5862,7 +5302,7 @@
         <v>15</v>
       </c>
       <c r="K86">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="L86">
         <v>11.9</v>
@@ -5874,19 +5314,13 @@
         <v>11.45</v>
       </c>
       <c r="Q86">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R86">
-        <v>280.36250000000001</v>
-      </c>
-      <c r="S86">
-        <v>62.78660714285715</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T86">
-        <v>68.521785714285713</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68.52178571428571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -5924,7 +5358,7 @@
         <v>14.25</v>
       </c>
       <c r="N87">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O87">
         <v>9.1</v>
@@ -5932,17 +5366,11 @@
       <c r="Q87">
         <v>19.34767857142857</v>
       </c>
-      <c r="R87">
-        <v>385.32499999999999</v>
-      </c>
-      <c r="S87">
-        <v>92.203392857142859</v>
-      </c>
       <c r="T87">
-        <v>65.836607142857147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.83660714285715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>105</v>
       </c>
@@ -5979,17 +5407,11 @@
       <c r="P88">
         <v>126.83125</v>
       </c>
-      <c r="R88">
-        <v>277.61250000000001</v>
-      </c>
-      <c r="S88">
-        <v>61.986607142857153</v>
-      </c>
       <c r="T88">
-        <v>272.66250000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+        <v>272.6625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>106</v>
       </c>
@@ -6027,7 +5449,7 @@
         <v>9</v>
       </c>
       <c r="N89">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O89">
         <v>7.5</v>
@@ -6035,17 +5457,11 @@
       <c r="Q89">
         <v>23.21339285714286</v>
       </c>
-      <c r="R89">
-        <v>353.23750000000001</v>
-      </c>
-      <c r="S89">
-        <v>88.835714285714275</v>
-      </c>
       <c r="T89">
-        <v>69.089285714285722</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69.08928571428572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>107</v>
       </c>
@@ -6080,28 +5496,22 @@
         <v>8.25</v>
       </c>
       <c r="L90">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N90">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O90">
         <v>11.45</v>
       </c>
       <c r="Q90">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R90">
-        <v>454.2</v>
-      </c>
-      <c r="S90">
-        <v>86.038749999999993</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T90">
-        <v>65.363035714285715</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.36303571428572</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>108</v>
       </c>
@@ -6130,25 +5540,19 @@
         <v>9.5</v>
       </c>
       <c r="M91">
-        <v>67.606250000000003</v>
+        <v>67.60625</v>
       </c>
       <c r="O91">
         <v>18.5</v>
       </c>
       <c r="P91">
-        <v>67.606250000000003</v>
-      </c>
-      <c r="R91">
-        <v>162.96250000000001</v>
-      </c>
-      <c r="S91">
-        <v>42.714642857142863</v>
+        <v>67.60625</v>
       </c>
       <c r="T91">
-        <v>163.21250000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+        <v>163.2125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>109</v>
       </c>
@@ -6186,25 +5590,19 @@
         <v>10.3</v>
       </c>
       <c r="N92">
-        <v>11.678571428571431</v>
+        <v>11.67857142857143</v>
       </c>
       <c r="O92">
         <v>6</v>
       </c>
       <c r="Q92">
-        <v>8.8360714285714295</v>
-      </c>
-      <c r="R92">
-        <v>153.21250000000001</v>
-      </c>
-      <c r="S92">
-        <v>38.364642857142861</v>
+        <v>8.836071428571429</v>
       </c>
       <c r="T92">
-        <v>36.814642857142857</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+        <v>36.81464285714286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>110</v>
       </c>
@@ -6242,25 +5640,19 @@
         <v>10.45</v>
       </c>
       <c r="N93">
-        <v>9.0307142857142857</v>
+        <v>9.030714285714286</v>
       </c>
       <c r="O93">
         <v>8.5</v>
       </c>
       <c r="Q93">
-        <v>7.0132142857142856</v>
-      </c>
-      <c r="R93">
-        <v>55.462499999999999</v>
-      </c>
-      <c r="S93">
-        <v>32.793928571428573</v>
+        <v>7.013214285714286</v>
       </c>
       <c r="T93">
-        <v>39.493928571428569</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39.49392857142857</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>111</v>
       </c>
@@ -6289,25 +5681,19 @@
         <v>11.2</v>
       </c>
       <c r="M94">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O94">
         <v>10</v>
       </c>
       <c r="P94">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R94">
-        <v>44.962499999999999</v>
-      </c>
-      <c r="S94">
-        <v>29.29392857142857</v>
+        <v>14.98125</v>
       </c>
       <c r="T94">
-        <v>51.162499999999987</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+        <v>51.16249999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>112</v>
       </c>
@@ -6345,7 +5731,7 @@
         <v>18.95</v>
       </c>
       <c r="N95">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O95">
         <v>7.5</v>
@@ -6353,17 +5739,11 @@
       <c r="Q95">
         <v>23.21339285714286</v>
       </c>
-      <c r="R95">
-        <v>245.82499999999999</v>
-      </c>
-      <c r="S95">
-        <v>59.96892857142857</v>
-      </c>
       <c r="T95">
-        <v>73.739285714285714</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73.73928571428571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>113</v>
       </c>
@@ -6401,25 +5781,19 @@
         <v>7.7</v>
       </c>
       <c r="N96">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O96">
         <v>6</v>
       </c>
       <c r="Q96">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R96">
-        <v>445.80000000000013</v>
-      </c>
-      <c r="S96">
-        <v>95.188749999999999</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T96">
-        <v>55.068928571428572</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+        <v>55.06892857142857</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -6448,25 +5822,19 @@
         <v>6</v>
       </c>
       <c r="M97">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O97">
         <v>10</v>
       </c>
       <c r="P97">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R97">
-        <v>79.449999999999989</v>
-      </c>
-      <c r="S97">
-        <v>35.361607142857139</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T97">
-        <v>71.449999999999989</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+        <v>71.44999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -6504,25 +5872,19 @@
         <v>7.5</v>
       </c>
       <c r="N98">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O98">
         <v>8.75</v>
       </c>
       <c r="Q98">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R98">
-        <v>344.08749999999998</v>
-      </c>
-      <c r="S98">
-        <v>85.335714285714275</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T98">
-        <v>60.363035714285722</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.36303571428572</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -6560,25 +5922,19 @@
         <v>10.8</v>
       </c>
       <c r="N99">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O99">
         <v>8.25</v>
       </c>
       <c r="Q99">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R99">
-        <v>350.23750000000013</v>
-      </c>
-      <c r="S99">
-        <v>84.435714285714283</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T99">
-        <v>65.713035714285724</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.71303571428572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>117</v>
       </c>
@@ -6607,25 +5963,19 @@
         <v>5.35</v>
       </c>
       <c r="M100">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O100">
         <v>10</v>
       </c>
       <c r="P100">
-        <v>53.212499999999999</v>
-      </c>
-      <c r="R100">
-        <v>121.425</v>
-      </c>
-      <c r="S100">
-        <v>40.196964285714287</v>
+        <v>53.2125</v>
       </c>
       <c r="T100">
-        <v>121.77500000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121.775</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>118</v>
       </c>
@@ -6663,25 +6013,19 @@
         <v>13.4</v>
       </c>
       <c r="N101">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O101">
         <v>8.4</v>
       </c>
       <c r="Q101">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R101">
-        <v>25.887499999999999</v>
-      </c>
-      <c r="S101">
-        <v>16.443750000000001</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T101">
-        <v>62.618928571428569</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.61892857142857</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -6716,28 +6060,22 @@
         <v>8</v>
       </c>
       <c r="L102">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N102">
-        <v>11.678571428571431</v>
+        <v>11.67857142857143</v>
       </c>
       <c r="O102">
         <v>5</v>
       </c>
       <c r="Q102">
-        <v>8.8360714285714295</v>
-      </c>
-      <c r="R102">
-        <v>150.21250000000001</v>
-      </c>
-      <c r="S102">
-        <v>37.064642857142857</v>
+        <v>8.836071428571429</v>
       </c>
       <c r="T102">
-        <v>35.214642857142863</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+        <v>35.21464285714286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -6766,25 +6104,19 @@
         <v>13.8</v>
       </c>
       <c r="M103">
-        <v>2.4437500000000001</v>
+        <v>2.44375</v>
       </c>
       <c r="O103">
         <v>14</v>
       </c>
       <c r="P103">
-        <v>2.4437500000000001</v>
-      </c>
-      <c r="R103">
-        <v>249.92500000000001</v>
-      </c>
-      <c r="S103">
-        <v>62.618928571428569</v>
+        <v>2.44375</v>
       </c>
       <c r="T103">
         <v>32.6875</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -6830,17 +6162,11 @@
       <c r="Q104">
         <v>23.21339285714286</v>
       </c>
-      <c r="R104">
-        <v>63.912499999999987</v>
-      </c>
-      <c r="S104">
-        <v>35.193928571428572</v>
-      </c>
       <c r="T104">
-        <v>67.191785714285714</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67.19178571428571</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>122</v>
       </c>
@@ -6881,22 +6207,16 @@
         <v>23.86964285714286</v>
       </c>
       <c r="O105">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Q105">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R105">
-        <v>420.2</v>
-      </c>
-      <c r="S105">
-        <v>85.884821428571428</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T105">
-        <v>67.530535714285719</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67.53053571428572</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>123</v>
       </c>
@@ -6925,25 +6245,19 @@
         <v>14.1</v>
       </c>
       <c r="M106">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O106">
         <v>16.8</v>
       </c>
       <c r="P106">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R106">
-        <v>409.46249999999998</v>
-      </c>
-      <c r="S106">
-        <v>84.921071428571423</v>
+        <v>14.98125</v>
       </c>
       <c r="T106">
-        <v>60.862499999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.8625</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>124</v>
       </c>
@@ -6981,25 +6295,19 @@
         <v>13.35</v>
       </c>
       <c r="N107">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O107">
         <v>12.1</v>
       </c>
       <c r="Q107">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R107">
-        <v>193.31250000000011</v>
-      </c>
-      <c r="S107">
-        <v>60.544821428571417</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T107">
-        <v>69.563035714285718</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69.56303571428572</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -7045,17 +6353,11 @@
       <c r="Q108">
         <v>18.83303571428571</v>
       </c>
-      <c r="R108">
-        <v>26.524999999999999</v>
-      </c>
-      <c r="S108">
-        <v>21.387499999999999</v>
-      </c>
       <c r="T108">
-        <v>60.894821428571433</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.89482142857143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -7084,25 +6386,19 @@
         <v>5</v>
       </c>
       <c r="M109">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O109">
         <v>14.7</v>
       </c>
       <c r="P109">
-        <v>2.2374999999999998</v>
-      </c>
-      <c r="R109">
-        <v>353.78750000000002</v>
-      </c>
-      <c r="S109">
-        <v>91.885714285714272</v>
+        <v>2.2375</v>
       </c>
       <c r="T109">
-        <v>24.175000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+        <v>24.175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>127</v>
       </c>
@@ -7140,25 +6436,19 @@
         <v>9.75</v>
       </c>
       <c r="N110">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O110">
         <v>6.5</v>
       </c>
       <c r="Q110">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R110">
-        <v>112.8125</v>
-      </c>
-      <c r="S110">
-        <v>36.096785714285723</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T110">
-        <v>62.063035714285718</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.06303571428572</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -7199,22 +6489,16 @@
         <v>11.61964285714286</v>
       </c>
       <c r="O111">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q111">
-        <v>8.7771428571428576</v>
-      </c>
-      <c r="R111">
-        <v>385.33749999999998</v>
-      </c>
-      <c r="S111">
-        <v>86.385714285714272</v>
+        <v>8.777142857142858</v>
       </c>
       <c r="T111">
-        <v>43.596785714285708</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+        <v>43.59678571428571</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -7243,25 +6527,19 @@
         <v>5.7</v>
       </c>
       <c r="M112">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O112">
         <v>6</v>
       </c>
       <c r="P112">
-        <v>2.2374999999999998</v>
-      </c>
-      <c r="R112">
-        <v>13.475</v>
-      </c>
-      <c r="S112">
-        <v>18.487500000000001</v>
+        <v>2.2375</v>
       </c>
       <c r="T112">
-        <v>16.175000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+        <v>16.175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>130</v>
       </c>
@@ -7299,25 +6577,19 @@
         <v>18.05</v>
       </c>
       <c r="N113">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O113">
         <v>7</v>
       </c>
       <c r="Q113">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R113">
-        <v>68.462500000000006</v>
-      </c>
-      <c r="S113">
-        <v>38.943928571428572</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T113">
-        <v>69.163035714285712</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69.16303571428571</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>131</v>
       </c>
@@ -7355,25 +6627,19 @@
         <v>5.25</v>
       </c>
       <c r="N114">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O114">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Q114">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R114">
-        <v>346.13749999999999</v>
-      </c>
-      <c r="S114">
-        <v>90.435714285714283</v>
+        <v>18.43625</v>
       </c>
       <c r="T114">
-        <v>61.501249999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.50125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -7402,25 +6668,19 @@
         <v>8.75</v>
       </c>
       <c r="M115">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O115">
         <v>23.1</v>
       </c>
       <c r="P115">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R115">
-        <v>225.6875</v>
-      </c>
-      <c r="S115">
-        <v>57.501249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="T115">
         <v>61.8125</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -7458,25 +6718,19 @@
         <v>11.35</v>
       </c>
       <c r="N116">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O116">
         <v>7.5</v>
       </c>
       <c r="Q116">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R116">
-        <v>340.33749999999998</v>
-      </c>
-      <c r="S116">
-        <v>84.23571428571428</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T116">
-        <v>62.963035714285724</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.96303571428572</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>134</v>
       </c>
@@ -7520,19 +6774,13 @@
         <v>6</v>
       </c>
       <c r="Q117">
-        <v>22.301964285714281</v>
-      </c>
-      <c r="R117">
-        <v>188.65</v>
-      </c>
-      <c r="S117">
-        <v>55.683571428571433</v>
+        <v>22.30196428571428</v>
       </c>
       <c r="T117">
-        <v>67.363928571428573</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67.36392857142857</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>135</v>
       </c>
@@ -7569,17 +6817,11 @@
       <c r="P118">
         <v>82</v>
       </c>
-      <c r="R118">
-        <v>252.28749999999999</v>
-      </c>
-      <c r="S118">
-        <v>59.230178571428567</v>
-      </c>
       <c r="T118">
         <v>185.25</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>136</v>
       </c>
@@ -7625,17 +6867,11 @@
       <c r="Q119">
         <v>23.15446428571428</v>
       </c>
-      <c r="R119">
-        <v>426.47500000000002</v>
-      </c>
-      <c r="S119">
-        <v>91.684821428571425</v>
-      </c>
       <c r="T119">
-        <v>71.525178571428569</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+        <v>71.52517857142857</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>137</v>
       </c>
@@ -7679,19 +6915,13 @@
         <v>5</v>
       </c>
       <c r="Q120">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R120">
-        <v>107.4875</v>
-      </c>
-      <c r="S120">
-        <v>40.479285714285709</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T120">
-        <v>63.130535714285713</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.13053571428571</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -7728,17 +6958,11 @@
       <c r="P121">
         <v>40.46875</v>
       </c>
-      <c r="R121">
-        <v>400.3125</v>
-      </c>
-      <c r="S121">
-        <v>87.071071428571429</v>
-      </c>
       <c r="T121">
         <v>100.6875</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -7776,7 +7000,7 @@
         <v>7.5</v>
       </c>
       <c r="N122">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O122">
         <v>7.75</v>
@@ -7784,17 +7008,11 @@
       <c r="Q122">
         <v>23.21339285714286</v>
       </c>
-      <c r="R122">
-        <v>162.85</v>
-      </c>
-      <c r="S122">
-        <v>44.523392857142873</v>
-      </c>
       <c r="T122">
-        <v>69.589285714285722</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69.58928571428572</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>140</v>
       </c>
@@ -7838,19 +7056,13 @@
         <v>6.05</v>
       </c>
       <c r="Q123">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R123">
-        <v>445.6</v>
-      </c>
-      <c r="S123">
-        <v>93.888750000000002</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T123">
         <v>61.32178571428571</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>141</v>
       </c>
@@ -7887,17 +7099,11 @@
       <c r="P124">
         <v>69.875</v>
       </c>
-      <c r="R124">
-        <v>368.07499999999999</v>
-      </c>
-      <c r="S124">
-        <v>82.653392857142848</v>
-      </c>
       <c r="T124">
         <v>162.65</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -7935,7 +7141,7 @@
         <v>8</v>
       </c>
       <c r="N125">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O125">
         <v>7.7</v>
@@ -7943,17 +7149,11 @@
       <c r="Q125">
         <v>19.80339285714286</v>
       </c>
-      <c r="R125">
-        <v>308.85000000000002</v>
-      </c>
-      <c r="S125">
-        <v>60.004285714285707</v>
-      </c>
       <c r="T125">
         <v>63.65428571428572</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>143</v>
       </c>
@@ -7982,25 +7182,19 @@
         <v>13.75</v>
       </c>
       <c r="M126">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O126">
         <v>18</v>
       </c>
       <c r="P126">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R126">
-        <v>56.962499999999999</v>
-      </c>
-      <c r="S126">
-        <v>34.043928571428573</v>
+        <v>14.98125</v>
       </c>
       <c r="T126">
-        <v>61.712499999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.7125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>144</v>
       </c>
@@ -8038,7 +7232,7 @@
         <v>11.5</v>
       </c>
       <c r="N127">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O127">
         <v>9.5</v>
@@ -8046,17 +7240,11 @@
       <c r="Q127">
         <v>19.80339285714286</v>
       </c>
-      <c r="R127">
-        <v>320.05000000000013</v>
-      </c>
-      <c r="S127">
-        <v>64.054285714285712</v>
-      </c>
       <c r="T127">
-        <v>66.804285714285712</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.80428571428571</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>145</v>
       </c>
@@ -8094,25 +7282,19 @@
         <v>6</v>
       </c>
       <c r="N128">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O128">
         <v>11.15</v>
       </c>
       <c r="Q128">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R128">
-        <v>29.625</v>
-      </c>
-      <c r="S128">
-        <v>18.9375</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T128">
         <v>63.71892857142857</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>146</v>
       </c>
@@ -8141,25 +7323,19 @@
         <v>12.65</v>
       </c>
       <c r="M129">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O129">
         <v>15.4</v>
       </c>
       <c r="P129">
-        <v>2.2374999999999998</v>
-      </c>
-      <c r="R129">
-        <v>255.02500000000001</v>
-      </c>
-      <c r="S129">
-        <v>57.96892857142857</v>
+        <v>2.2375</v>
       </c>
       <c r="T129">
-        <v>32.524999999999999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+        <v>32.525</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" t="s">
         <v>147</v>
       </c>
@@ -8197,25 +7373,19 @@
         <v>6</v>
       </c>
       <c r="N130">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O130">
         <v>13.05</v>
       </c>
       <c r="Q130">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R130">
-        <v>189.05</v>
-      </c>
-      <c r="S130">
-        <v>56.683571428571433</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T130">
-        <v>64.368928571428569</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.36892857142857</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" t="s">
         <v>148</v>
       </c>
@@ -8253,25 +7423,19 @@
         <v>12.95</v>
       </c>
       <c r="N131">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O131">
         <v>8.35</v>
       </c>
       <c r="Q131">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R131">
-        <v>197.45</v>
-      </c>
-      <c r="S131">
-        <v>57.433571428571433</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T131">
-        <v>59.883571428571429</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+        <v>59.88357142857143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>149</v>
       </c>
@@ -8300,25 +7464,19 @@
         <v>13.3</v>
       </c>
       <c r="M132">
-        <v>82.824999999999989</v>
+        <v>82.82499999999999</v>
       </c>
       <c r="O132">
         <v>21.2</v>
       </c>
       <c r="P132">
-        <v>82.824999999999989</v>
-      </c>
-      <c r="R132">
-        <v>261.07499999999999</v>
-      </c>
-      <c r="S132">
-        <v>63.21892857142857</v>
+        <v>82.82499999999999</v>
       </c>
       <c r="T132">
         <v>200.15</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>150</v>
       </c>
@@ -8350,13 +7508,13 @@
         <v>15</v>
       </c>
       <c r="K133">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L133">
         <v>4</v>
       </c>
       <c r="N133">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O133">
         <v>7.35</v>
@@ -8364,17 +7522,11 @@
       <c r="Q133">
         <v>23.21339285714286</v>
       </c>
-      <c r="R133">
-        <v>280.21249999999998</v>
-      </c>
-      <c r="S133">
-        <v>59.486607142857139</v>
-      </c>
       <c r="T133">
-        <v>64.439285714285717</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.43928571428572</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>151</v>
       </c>
@@ -8406,13 +7558,13 @@
         <v>15</v>
       </c>
       <c r="K134">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L134">
         <v>4</v>
       </c>
       <c r="N134">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O134">
         <v>7.35</v>
@@ -8420,17 +7572,11 @@
       <c r="Q134">
         <v>19.34767857142857</v>
       </c>
-      <c r="R134">
-        <v>444.4</v>
-      </c>
-      <c r="S134">
-        <v>87.788750000000007</v>
-      </c>
       <c r="T134">
-        <v>59.086607142857147</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+        <v>59.08660714285715</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>152</v>
       </c>
@@ -8459,25 +7605,19 @@
         <v>8.4</v>
       </c>
       <c r="M135">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O135">
         <v>17.5</v>
       </c>
       <c r="P135">
-        <v>53.212499999999999</v>
-      </c>
-      <c r="R135">
-        <v>135.125</v>
-      </c>
-      <c r="S135">
-        <v>34.14696428571429</v>
+        <v>53.2125</v>
       </c>
       <c r="T135">
-        <v>132.32499999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+        <v>132.325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>153</v>
       </c>
@@ -8509,7 +7649,7 @@
         <v>15</v>
       </c>
       <c r="K136">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="L136">
         <v>7</v>
@@ -8521,19 +7661,13 @@
         <v>9.1</v>
       </c>
       <c r="Q136">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R136">
-        <v>239.57499999999999</v>
-      </c>
-      <c r="S136">
-        <v>54.168928571428573</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T136">
-        <v>63.380535714285713</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.38053571428571</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -8571,25 +7705,19 @@
         <v>7.7</v>
       </c>
       <c r="N137">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O137">
         <v>6</v>
       </c>
       <c r="Q137">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R137">
-        <v>412.61250000000001</v>
-      </c>
-      <c r="S137">
-        <v>84.421071428571423</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T137">
-        <v>57.668928571428573</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+        <v>57.66892857142857</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -8618,25 +7746,19 @@
         <v>10.45</v>
       </c>
       <c r="M138">
-        <v>110.78749999999999</v>
+        <v>110.7875</v>
       </c>
       <c r="O138">
         <v>10</v>
       </c>
       <c r="P138">
-        <v>110.78749999999999</v>
-      </c>
-      <c r="R138">
-        <v>244.02500000000001</v>
-      </c>
-      <c r="S138">
-        <v>56.068928571428572</v>
+        <v>110.7875</v>
       </c>
       <c r="T138">
-        <v>242.02500000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+        <v>242.025</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -8674,7 +7796,7 @@
         <v>14.75</v>
       </c>
       <c r="N139">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O139">
         <v>8</v>
@@ -8682,17 +7804,11 @@
       <c r="Q139">
         <v>23.21339285714286</v>
       </c>
-      <c r="R139">
-        <v>385.43750000000011</v>
-      </c>
-      <c r="S139">
-        <v>86.417142857142849</v>
-      </c>
       <c r="T139">
-        <v>70.039285714285711</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70.03928571428571</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -8730,25 +7846,19 @@
         <v>12.9</v>
       </c>
       <c r="N140">
-        <v>25.574642857142859</v>
+        <v>25.57464285714286</v>
       </c>
       <c r="O140">
         <v>8.4</v>
       </c>
       <c r="Q140">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R140">
-        <v>446.45</v>
-      </c>
-      <c r="S140">
-        <v>90.838750000000005</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T140">
-        <v>69.235535714285703</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69.2355357142857</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -8777,25 +7887,19 @@
         <v>7</v>
       </c>
       <c r="M141">
-        <v>174.96250000000001</v>
+        <v>174.9625</v>
       </c>
       <c r="O141">
         <v>16.5</v>
       </c>
       <c r="P141">
-        <v>174.96250000000001</v>
-      </c>
-      <c r="R141">
-        <v>381.97500000000002</v>
-      </c>
-      <c r="S141">
-        <v>88.753392857142856</v>
+        <v>174.9625</v>
       </c>
       <c r="T141">
-        <v>373.42500000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+        <v>373.425</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -8833,7 +7937,7 @@
         <v>12.65</v>
       </c>
       <c r="N142">
-        <v>12.311071428571431</v>
+        <v>12.31107142857143</v>
       </c>
       <c r="O142">
         <v>9.25</v>
@@ -8841,17 +7945,11 @@
       <c r="Q142">
         <v>9.262321428571429</v>
       </c>
-      <c r="R142">
-        <v>167.5</v>
-      </c>
-      <c r="S142">
-        <v>43.673392857142858</v>
-      </c>
       <c r="T142">
-        <v>43.473392857142848</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+        <v>43.47339285714285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>160</v>
       </c>
@@ -8888,17 +7986,11 @@
       <c r="P143">
         <v>31.85</v>
       </c>
-      <c r="R143">
-        <v>87.712499999999991</v>
-      </c>
-      <c r="S143">
-        <v>37.520357142857137</v>
-      </c>
       <c r="T143">
-        <v>90.850000000000009</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+        <v>90.85000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -8930,7 +8022,7 @@
         <v>15</v>
       </c>
       <c r="K144">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L144">
         <v>14.3</v>
@@ -8942,19 +8034,13 @@
         <v>5</v>
       </c>
       <c r="Q144">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R144">
-        <v>82.749999999999986</v>
-      </c>
-      <c r="S144">
-        <v>42.21160714285714</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T144">
-        <v>64.471785714285716</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.47178571428572</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>162</v>
       </c>
@@ -8992,7 +8078,7 @@
         <v>11.2</v>
       </c>
       <c r="N145">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O145">
         <v>7</v>
@@ -9000,17 +8086,11 @@
       <c r="Q145">
         <v>19.34767857142857</v>
       </c>
-      <c r="R145">
-        <v>279.86250000000001</v>
-      </c>
-      <c r="S145">
-        <v>60.086607142857147</v>
-      </c>
       <c r="T145">
-        <v>60.136607142857137</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.13660714285714</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>163</v>
       </c>
@@ -9039,25 +8119,19 @@
         <v>9.25</v>
       </c>
       <c r="M146">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O146">
         <v>18.2</v>
       </c>
       <c r="P146">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R146">
-        <v>374.375</v>
-      </c>
-      <c r="S146">
-        <v>87.003392857142856</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T146">
-        <v>82.899999999999991</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+        <v>82.89999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>164</v>
       </c>
@@ -9095,7 +8169,7 @@
         <v>9.25</v>
       </c>
       <c r="N147">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O147">
         <v>9.1</v>
@@ -9103,17 +8177,11 @@
       <c r="Q147">
         <v>23.21339285714286</v>
       </c>
-      <c r="R147">
-        <v>280.96249999999998</v>
-      </c>
-      <c r="S147">
-        <v>66.486607142857139</v>
-      </c>
       <c r="T147">
         <v>65.63928571428572</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>165</v>
       </c>
@@ -9151,7 +8219,7 @@
         <v>11.55</v>
       </c>
       <c r="N148">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O148">
         <v>9.1</v>
@@ -9159,17 +8227,11 @@
       <c r="Q148">
         <v>19.34767857142857</v>
       </c>
-      <c r="R148">
-        <v>229.83750000000001</v>
-      </c>
-      <c r="S148">
-        <v>66.401250000000005</v>
-      </c>
       <c r="T148">
-        <v>62.586607142857147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.58660714285715</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>166</v>
       </c>
@@ -9198,25 +8260,19 @@
         <v>9.5</v>
       </c>
       <c r="M149">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="O149">
         <v>24.7</v>
       </c>
       <c r="P149">
-        <v>96.393750000000011</v>
-      </c>
-      <c r="R149">
-        <v>448.15</v>
-      </c>
-      <c r="S149">
-        <v>89.388750000000002</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="T149">
-        <v>226.98750000000001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+        <v>226.9875</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -9254,7 +8310,7 @@
         <v>12.95</v>
       </c>
       <c r="N150">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O150">
         <v>8.75</v>
@@ -9262,17 +8318,11 @@
       <c r="Q150">
         <v>23.21339285714286</v>
       </c>
-      <c r="R150">
-        <v>458.17500000000001</v>
-      </c>
-      <c r="S150">
-        <v>91.288749999999993</v>
-      </c>
       <c r="T150">
-        <v>70.489285714285714</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70.48928571428571</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>168</v>
       </c>
@@ -9310,25 +8360,19 @@
         <v>11</v>
       </c>
       <c r="N151">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O151">
         <v>8.5</v>
       </c>
       <c r="Q151">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R151">
-        <v>225.9375</v>
-      </c>
-      <c r="S151">
-        <v>59.201250000000002</v>
+        <v>18.43625</v>
       </c>
       <c r="T151">
-        <v>61.801250000000003</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.80125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>169</v>
       </c>
@@ -9357,25 +8401,19 @@
         <v>9</v>
       </c>
       <c r="M152">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="O152">
         <v>12</v>
       </c>
       <c r="P152">
-        <v>96.393750000000011</v>
-      </c>
-      <c r="R152">
-        <v>210.78749999999999</v>
-      </c>
-      <c r="S152">
-        <v>59.201250000000002</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="T152">
-        <v>213.78749999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+        <v>213.7875</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>170</v>
       </c>
@@ -9413,25 +8451,19 @@
         <v>8.4</v>
       </c>
       <c r="N153">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O153">
         <v>13.3</v>
       </c>
       <c r="Q153">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R153">
-        <v>232.6875</v>
-      </c>
-      <c r="S153">
-        <v>63.751249999999999</v>
+        <v>18.43625</v>
       </c>
       <c r="T153">
-        <v>64.101250000000007</v>
-      </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.10125000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>171</v>
       </c>
@@ -9460,25 +8492,19 @@
         <v>10.8</v>
       </c>
       <c r="M154">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O154">
         <v>16.7</v>
       </c>
       <c r="P154">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R154">
-        <v>55.012500000000003</v>
-      </c>
-      <c r="S154">
-        <v>32.393928571428567</v>
+        <v>14.98125</v>
       </c>
       <c r="T154">
-        <v>57.462500000000013</v>
-      </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+        <v>57.46250000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>172</v>
       </c>
@@ -9522,19 +8548,13 @@
         <v>5.7</v>
       </c>
       <c r="Q155">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R155">
-        <v>246.67500000000001</v>
-      </c>
-      <c r="S155">
-        <v>59.118928571428583</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T155">
-        <v>66.880535714285713</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.88053571428571</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>173</v>
       </c>
@@ -9572,25 +8592,19 @@
         <v>8</v>
       </c>
       <c r="N156">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O156">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Q156">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R156">
-        <v>213.83750000000001</v>
-      </c>
-      <c r="S156">
-        <v>55.60125</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T156">
         <v>57.96892857142857</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>174</v>
       </c>
@@ -9616,28 +8630,22 @@
         <v>15</v>
       </c>
       <c r="K157">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M157">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="O157">
         <v>6</v>
       </c>
       <c r="P157">
-        <v>96.393750000000011</v>
-      </c>
-      <c r="R157">
-        <v>423.46249999999998</v>
-      </c>
-      <c r="S157">
-        <v>91.021071428571432</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="T157">
-        <v>207.48750000000001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+        <v>207.4875</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>175</v>
       </c>
@@ -9675,25 +8683,19 @@
         <v>7.25</v>
       </c>
       <c r="N158">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O158">
         <v>7.35</v>
       </c>
       <c r="Q158">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R158">
-        <v>74.749999999999986</v>
-      </c>
-      <c r="S158">
-        <v>29.91160714285714</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T158">
-        <v>64.013035714285706</v>
-      </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.01303571428571</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>176</v>
       </c>
@@ -9731,25 +8733,19 @@
         <v>15.45</v>
       </c>
       <c r="N159">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O159">
         <v>11.05</v>
       </c>
       <c r="Q159">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R159">
-        <v>228.63749999999999</v>
-      </c>
-      <c r="S159">
-        <v>67.301249999999996</v>
+        <v>18.43625</v>
       </c>
       <c r="T159">
-        <v>66.201250000000002</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.20125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>177</v>
       </c>
@@ -9778,25 +8774,19 @@
         <v>10.5</v>
       </c>
       <c r="M160">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O160">
         <v>8</v>
       </c>
       <c r="P160">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R160">
-        <v>342.88749999999999</v>
-      </c>
-      <c r="S160">
-        <v>88.185714285714283</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T160">
-        <v>73.949999999999989</v>
-      </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73.94999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>178</v>
       </c>
@@ -9834,7 +8824,7 @@
         <v>14.5</v>
       </c>
       <c r="N161">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O161">
         <v>6</v>
@@ -9842,17 +8832,11 @@
       <c r="Q161">
         <v>23.21339285714286</v>
       </c>
-      <c r="R161">
-        <v>385.28750000000002</v>
-      </c>
-      <c r="S161">
-        <v>92.267142857142858</v>
-      </c>
       <c r="T161">
-        <v>67.789285714285711</v>
-      </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67.78928571428571</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>179</v>
       </c>
@@ -9896,19 +8880,13 @@
         <v>8.35</v>
       </c>
       <c r="Q162">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R162">
-        <v>445.5</v>
-      </c>
-      <c r="S162">
-        <v>88.438749999999999</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T162">
-        <v>69.133035714285711</v>
-      </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69.13303571428571</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -9937,25 +8915,19 @@
         <v>9.6</v>
       </c>
       <c r="M163">
-        <v>193.06874999999999</v>
+        <v>193.06875</v>
       </c>
       <c r="O163">
         <v>8</v>
       </c>
       <c r="P163">
-        <v>193.06874999999999</v>
-      </c>
-      <c r="R163">
-        <v>406.78750000000002</v>
-      </c>
-      <c r="S163">
-        <v>82.371071428571426</v>
+        <v>193.06875</v>
       </c>
       <c r="T163">
-        <v>403.73750000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+        <v>403.7375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>181</v>
       </c>
@@ -9999,19 +8971,13 @@
         <v>6</v>
       </c>
       <c r="Q164">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R164">
-        <v>367.92500000000001</v>
-      </c>
-      <c r="S164">
-        <v>82.253392857142856</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T164">
-        <v>65.621785714285707</v>
-      </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.62178571428571</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>182</v>
       </c>
@@ -10055,19 +9021,13 @@
         <v>7</v>
       </c>
       <c r="Q165">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R165">
-        <v>251.92500000000001</v>
-      </c>
-      <c r="S165">
-        <v>64.518928571428575</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T165">
-        <v>67.921785714285718</v>
-      </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67.92178571428572</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>183</v>
       </c>
@@ -10096,25 +9056,19 @@
         <v>9.25</v>
       </c>
       <c r="M166">
-        <v>110.78749999999999</v>
+        <v>110.7875</v>
       </c>
       <c r="O166">
         <v>14</v>
       </c>
       <c r="P166">
-        <v>110.78749999999999</v>
-      </c>
-      <c r="R166">
-        <v>370.92500000000001</v>
-      </c>
-      <c r="S166">
-        <v>89.253392857142856</v>
+        <v>110.7875</v>
       </c>
       <c r="T166">
-        <v>244.82499999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+        <v>244.825</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -10152,7 +9106,7 @@
         <v>8</v>
       </c>
       <c r="N167">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O167">
         <v>6</v>
@@ -10160,17 +9114,11 @@
       <c r="Q167">
         <v>19.34767857142857</v>
       </c>
-      <c r="R167">
-        <v>277.26249999999999</v>
-      </c>
-      <c r="S167">
-        <v>61.636607142857137</v>
-      </c>
       <c r="T167">
-        <v>55.936607142857142</v>
-      </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+        <v>55.93660714285714</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>185</v>
       </c>
@@ -10208,25 +9156,19 @@
         <v>8</v>
       </c>
       <c r="N168">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O168">
         <v>6</v>
       </c>
       <c r="Q168">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R168">
-        <v>64.449999999999989</v>
-      </c>
-      <c r="S168">
-        <v>33.411607142857143</v>
+        <v>18.43625</v>
       </c>
       <c r="T168">
-        <v>54.701250000000002</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+        <v>54.70125</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>186</v>
       </c>
@@ -10255,25 +9197,19 @@
         <v>7.7</v>
       </c>
       <c r="M169">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O169">
         <v>6</v>
       </c>
       <c r="P169">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R169">
-        <v>210.78749999999999</v>
-      </c>
-      <c r="S169">
-        <v>57.251249999999999</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T169">
-        <v>69.149999999999991</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69.14999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>187</v>
       </c>
@@ -10311,7 +9247,7 @@
         <v>13.25</v>
       </c>
       <c r="N170">
-        <v>23.647678571428571</v>
+        <v>23.64767857142857</v>
       </c>
       <c r="O170">
         <v>10</v>
@@ -10319,17 +9255,11 @@
       <c r="Q170">
         <v>20.20017857142857</v>
       </c>
-      <c r="R170">
-        <v>298.27499999999998</v>
-      </c>
-      <c r="S170">
-        <v>67.097857142857151</v>
-      </c>
       <c r="T170">
-        <v>67.247857142857143</v>
-      </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67.24785714285714</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>188</v>
       </c>
@@ -10367,25 +9297,19 @@
         <v>17.75</v>
       </c>
       <c r="N171">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O171">
         <v>7.5</v>
       </c>
       <c r="Q171">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R171">
-        <v>186.5</v>
-      </c>
-      <c r="S171">
-        <v>63.833571428571432</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T171">
-        <v>63.833571428571432</v>
-      </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.83357142857143</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>189</v>
       </c>
@@ -10414,25 +9338,19 @@
         <v>10.95</v>
       </c>
       <c r="M172">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O172">
         <v>13</v>
       </c>
       <c r="P172">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R172">
-        <v>49.462499999999999</v>
-      </c>
-      <c r="S172">
-        <v>39.543928571428573</v>
+        <v>14.98125</v>
       </c>
       <c r="T172">
-        <v>53.912499999999987</v>
-      </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+        <v>53.91249999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>190</v>
       </c>
@@ -10470,25 +9388,19 @@
         <v>13.3</v>
       </c>
       <c r="N173">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O173">
         <v>6</v>
       </c>
       <c r="Q173">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R173">
-        <v>83.999999999999986</v>
-      </c>
-      <c r="S173">
-        <v>38.661607142857143</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T173">
-        <v>63.413035714285712</v>
-      </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.41303571428571</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>191</v>
       </c>
@@ -10526,25 +9438,19 @@
         <v>4</v>
       </c>
       <c r="N174">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O174">
         <v>8.75</v>
       </c>
       <c r="Q174">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R174">
-        <v>344.83749999999998</v>
-      </c>
-      <c r="S174">
-        <v>86.385714285714272</v>
+        <v>18.43625</v>
       </c>
       <c r="T174">
-        <v>62.401249999999997</v>
-      </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.40125</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -10570,28 +9476,22 @@
         <v>15</v>
       </c>
       <c r="K175">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M175">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O175">
         <v>11</v>
       </c>
       <c r="P175">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R175">
-        <v>227.28749999999999</v>
-      </c>
-      <c r="S175">
-        <v>58.701250000000002</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T175">
-        <v>76.399999999999991</v>
-      </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+        <v>76.39999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>193</v>
       </c>
@@ -10635,19 +9535,13 @@
         <v>11.95</v>
       </c>
       <c r="Q176">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R176">
-        <v>191.35</v>
-      </c>
-      <c r="S176">
-        <v>62.383571428571443</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T176">
-        <v>71.021785714285713</v>
-      </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+        <v>71.02178571428571</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>194</v>
       </c>
@@ -10682,28 +9576,22 @@
         <v>8</v>
       </c>
       <c r="L177">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N177">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O177">
         <v>6</v>
       </c>
       <c r="Q177">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R177">
-        <v>385.07499999999999</v>
-      </c>
-      <c r="S177">
-        <v>92.353392857142865</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T177">
-        <v>54.383571428571443</v>
-      </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+        <v>54.38357142857144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>195</v>
       </c>
@@ -10732,25 +9620,19 @@
         <v>14.9</v>
       </c>
       <c r="M178">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O178">
         <v>16.5</v>
       </c>
       <c r="P178">
-        <v>53.212499999999999</v>
-      </c>
-      <c r="R178">
-        <v>131.17500000000001</v>
-      </c>
-      <c r="S178">
-        <v>42.496964285714277</v>
+        <v>53.2125</v>
       </c>
       <c r="T178">
-        <v>137.82499999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+        <v>137.825</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>196</v>
       </c>
@@ -10782,31 +9664,25 @@
         <v>0</v>
       </c>
       <c r="K179">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="L179">
         <v>13.15</v>
       </c>
       <c r="N179">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O179">
         <v>7.25</v>
       </c>
       <c r="Q179">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R179">
-        <v>247.92500000000001</v>
-      </c>
-      <c r="S179">
-        <v>57.068928571428572</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T179">
         <v>61.21892857142857</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>197</v>
       </c>
@@ -10850,19 +9726,13 @@
         <v>5</v>
       </c>
       <c r="Q180">
-        <v>7.4394642857142852</v>
-      </c>
-      <c r="R180">
-        <v>53.9</v>
-      </c>
-      <c r="S180">
-        <v>34.652678571428567</v>
+        <v>7.439464285714285</v>
       </c>
       <c r="T180">
-        <v>32.252678571428582</v>
-      </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+        <v>32.25267857142858</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>198</v>
       </c>
@@ -10891,25 +9761,19 @@
         <v>9.5</v>
       </c>
       <c r="M181">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O181">
         <v>13.5</v>
       </c>
       <c r="P181">
-        <v>2.2374999999999998</v>
-      </c>
-      <c r="R181">
-        <v>35.375</v>
-      </c>
-      <c r="S181">
-        <v>24.837499999999999</v>
+        <v>2.2375</v>
       </c>
       <c r="T181">
-        <v>27.475000000000001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+        <v>27.475</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>199</v>
       </c>
@@ -10947,7 +9811,7 @@
         <v>14.65</v>
       </c>
       <c r="N182">
-        <v>26.633392857142859</v>
+        <v>26.63339285714286</v>
       </c>
       <c r="O182">
         <v>7</v>
@@ -10955,17 +9819,11 @@
       <c r="Q182">
         <v>23.21339285714286</v>
       </c>
-      <c r="R182">
-        <v>335.83749999999998</v>
-      </c>
-      <c r="S182">
-        <v>88.585714285714275</v>
-      </c>
       <c r="T182">
-        <v>71.496785714285721</v>
-      </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+        <v>71.49678571428572</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -11003,25 +9861,19 @@
         <v>15.6</v>
       </c>
       <c r="N183">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O183">
         <v>6</v>
       </c>
       <c r="Q183">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R183">
-        <v>213.78749999999999</v>
-      </c>
-      <c r="S183">
-        <v>59.501249999999999</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T183">
-        <v>65.713035714285724</v>
-      </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.71303571428572</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>201</v>
       </c>
@@ -11050,25 +9902,19 @@
         <v>9.75</v>
       </c>
       <c r="M184">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="O184">
         <v>14</v>
       </c>
       <c r="P184">
-        <v>96.393750000000011</v>
-      </c>
-      <c r="R184">
-        <v>421.375</v>
-      </c>
-      <c r="S184">
-        <v>92.984821428571422</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="T184">
-        <v>216.53749999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+        <v>216.5375</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>202</v>
       </c>
@@ -11106,25 +9952,19 @@
         <v>6</v>
       </c>
       <c r="N185">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O185">
         <v>7</v>
       </c>
       <c r="Q185">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R185">
-        <v>242.57499999999999</v>
-      </c>
-      <c r="S185">
-        <v>61.068928571428572</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T185">
-        <v>53.818928571428572</v>
-      </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+        <v>53.81892857142857</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>203</v>
       </c>
@@ -11153,25 +9993,19 @@
         <v>13.25</v>
       </c>
       <c r="M186">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O186">
         <v>8</v>
       </c>
       <c r="P186">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R186">
-        <v>41.962499999999999</v>
-      </c>
-      <c r="S186">
-        <v>30.743928571428569</v>
+        <v>14.98125</v>
       </c>
       <c r="T186">
-        <v>51.212499999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+        <v>51.2125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>204</v>
       </c>
@@ -11212,22 +10046,16 @@
         <v>23.66339285714286</v>
       </c>
       <c r="O187">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="Q187">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R187">
-        <v>52.8125</v>
-      </c>
-      <c r="S187">
-        <v>37.243928571428583</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T187">
-        <v>61.221785714285723</v>
-      </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.22178571428572</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>205</v>
       </c>
@@ -11271,19 +10099,13 @@
         <v>7</v>
       </c>
       <c r="Q188">
-        <v>10.967321428571431</v>
-      </c>
-      <c r="R188">
-        <v>165.28749999999999</v>
-      </c>
-      <c r="S188">
-        <v>39.88214285714286</v>
+        <v>10.96732142857143</v>
       </c>
       <c r="T188">
-        <v>47.758392857142852</v>
-      </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+        <v>47.75839285714285</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>206</v>
       </c>
@@ -11312,25 +10134,19 @@
         <v>8.5</v>
       </c>
       <c r="M189">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O189">
         <v>12.1</v>
       </c>
       <c r="P189">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R189">
-        <v>380.52499999999998</v>
-      </c>
-      <c r="S189">
-        <v>90.503392857142842</v>
+        <v>14.98125</v>
       </c>
       <c r="T189">
         <v>50.5625</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>207</v>
       </c>
@@ -11368,7 +10184,7 @@
         <v>11.45</v>
       </c>
       <c r="N190">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O190">
         <v>7.8</v>
@@ -11376,17 +10192,11 @@
       <c r="Q190">
         <v>23.21339285714286</v>
       </c>
-      <c r="R190">
-        <v>211.33750000000001</v>
-      </c>
-      <c r="S190">
-        <v>54.201250000000002</v>
-      </c>
       <c r="T190">
-        <v>66.539285714285711</v>
-      </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.53928571428571</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>208</v>
       </c>
@@ -11424,7 +10234,7 @@
         <v>6</v>
       </c>
       <c r="N191">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O191">
         <v>8.4</v>
@@ -11432,17 +10242,11 @@
       <c r="Q191">
         <v>23.21339285714286</v>
       </c>
-      <c r="R191">
-        <v>444.10000000000008</v>
-      </c>
-      <c r="S191">
-        <v>84.888750000000002</v>
-      </c>
       <c r="T191">
-        <v>64.439285714285717</v>
-      </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.43928571428572</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>209</v>
       </c>
@@ -11471,25 +10275,19 @@
         <v>9.85</v>
       </c>
       <c r="M192">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="O192">
         <v>6</v>
       </c>
       <c r="P192">
-        <v>96.393750000000011</v>
-      </c>
-      <c r="R192">
-        <v>450.7</v>
-      </c>
-      <c r="S192">
-        <v>83.138750000000002</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="T192">
-        <v>208.63749999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+        <v>208.6375</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" t="s">
         <v>210</v>
       </c>
@@ -11527,7 +10325,7 @@
         <v>7.75</v>
       </c>
       <c r="N193">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O193">
         <v>10.35</v>
@@ -11535,17 +10333,11 @@
       <c r="Q193">
         <v>23.21339285714286</v>
       </c>
-      <c r="R193">
-        <v>107.6875</v>
-      </c>
-      <c r="S193">
-        <v>41.379285714285707</v>
-      </c>
       <c r="T193">
-        <v>70.689285714285717</v>
-      </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70.68928571428572</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>211</v>
       </c>
@@ -11583,7 +10375,7 @@
         <v>15.35</v>
       </c>
       <c r="N194">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O194">
         <v>6</v>
@@ -11591,17 +10383,11 @@
       <c r="Q194">
         <v>19.34767857142857</v>
       </c>
-      <c r="R194">
-        <v>454.22500000000002</v>
-      </c>
-      <c r="S194">
-        <v>95.788750000000007</v>
-      </c>
       <c r="T194">
         <v>63.28660714285715</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20">
       <c r="A195" t="s">
         <v>212</v>
       </c>
@@ -11638,17 +10424,11 @@
       <c r="P195">
         <v>40.46875</v>
       </c>
-      <c r="R195">
-        <v>278.13749999999999</v>
-      </c>
-      <c r="S195">
-        <v>63.28660714285715</v>
-      </c>
       <c r="T195">
         <v>106.1875</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20">
       <c r="A196" t="s">
         <v>213</v>
       </c>
@@ -11689,22 +10469,16 @@
         <v>23.66339285714286</v>
       </c>
       <c r="O196">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="Q196">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R196">
-        <v>379.32499999999999</v>
-      </c>
-      <c r="S196">
-        <v>86.50339285714287</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T196">
-        <v>63.371785714285707</v>
-      </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63.37178571428571</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" t="s">
         <v>214</v>
       </c>
@@ -11739,10 +10513,10 @@
         <v>6</v>
       </c>
       <c r="L197">
-        <v>9.9499999999999993</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="N197">
-        <v>23.647678571428571</v>
+        <v>23.64767857142857</v>
       </c>
       <c r="O197">
         <v>7</v>
@@ -11750,17 +10524,11 @@
       <c r="Q197">
         <v>20.20017857142857</v>
       </c>
-      <c r="R197">
-        <v>89.199999999999989</v>
-      </c>
-      <c r="S197">
-        <v>36.411607142857143</v>
-      </c>
       <c r="T197">
-        <v>60.797857142857147</v>
-      </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.79785714285715</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" t="s">
         <v>215</v>
       </c>
@@ -11789,25 +10557,19 @@
         <v>11.15</v>
       </c>
       <c r="M198">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O198">
         <v>22.5</v>
       </c>
       <c r="P198">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R198">
-        <v>282.50000000000011</v>
-      </c>
-      <c r="S198">
-        <v>64.347857142857151</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T198">
-        <v>89.1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+        <v>89.09999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" t="s">
         <v>216</v>
       </c>
@@ -11851,19 +10613,13 @@
         <v>10.75</v>
       </c>
       <c r="Q199">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R199">
-        <v>420.01249999999999</v>
-      </c>
-      <c r="S199">
-        <v>89.121071428571426</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T199">
-        <v>67.730535714285708</v>
-      </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67.73053571428571</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" t="s">
         <v>217</v>
       </c>
@@ -11900,17 +10656,11 @@
       <c r="P200">
         <v>82</v>
       </c>
-      <c r="R200">
-        <v>195.7</v>
-      </c>
-      <c r="S200">
-        <v>55.683571428571433</v>
-      </c>
       <c r="T200">
         <v>192.9</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20">
       <c r="A201" t="s">
         <v>218</v>
       </c>
@@ -11945,28 +10695,22 @@
         <v>12.85</v>
       </c>
       <c r="L201">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N201">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O201">
         <v>7</v>
       </c>
       <c r="Q201">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R201">
-        <v>192.65</v>
-      </c>
-      <c r="S201">
-        <v>52.933571428571433</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T201">
-        <v>58.433571428571433</v>
-      </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+        <v>58.43357142857143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
       <c r="A202" t="s">
         <v>219</v>
       </c>
@@ -12004,25 +10748,19 @@
         <v>10.45</v>
       </c>
       <c r="N202">
-        <v>11.678571428571431</v>
+        <v>11.67857142857143</v>
       </c>
       <c r="O202">
         <v>12.6</v>
       </c>
       <c r="Q202">
-        <v>8.8360714285714295</v>
-      </c>
-      <c r="R202">
-        <v>174.76249999999999</v>
-      </c>
-      <c r="S202">
-        <v>43.414642857142859</v>
+        <v>8.836071428571429</v>
       </c>
       <c r="T202">
-        <v>43.564642857142857</v>
-      </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+        <v>43.56464285714286</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
       <c r="A203" t="s">
         <v>215</v>
       </c>
@@ -12059,17 +10797,11 @@
       <c r="P203">
         <v>15.6</v>
       </c>
-      <c r="R203">
-        <v>64.95</v>
-      </c>
-      <c r="S203">
-        <v>35.702678571428571</v>
-      </c>
       <c r="T203">
-        <v>64.849999999999994</v>
-      </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.84999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" t="s">
         <v>220</v>
       </c>
@@ -12104,7 +10836,7 @@
         <v>13.25</v>
       </c>
       <c r="L204">
-        <v>16.350000000000001</v>
+        <v>16.35</v>
       </c>
       <c r="N204">
         <v>23.66339285714286</v>
@@ -12113,19 +10845,13 @@
         <v>5</v>
       </c>
       <c r="Q204">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R204">
-        <v>70.449999999999989</v>
-      </c>
-      <c r="S204">
-        <v>33.111607142857139</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T204">
-        <v>66.521785714285713</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.52178571428571</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
       <c r="A205" t="s">
         <v>221</v>
       </c>
@@ -12163,25 +10889,19 @@
         <v>10.45</v>
       </c>
       <c r="N205">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O205">
         <v>3</v>
       </c>
       <c r="Q205">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R205">
-        <v>356.85</v>
-      </c>
-      <c r="S205">
-        <v>89.499464285714282</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T205">
-        <v>58.313035714285718</v>
-      </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+        <v>58.31303571428572</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
       <c r="A206" t="s">
         <v>222</v>
       </c>
@@ -12210,25 +10930,19 @@
         <v>13.25</v>
       </c>
       <c r="M206">
-        <v>30.818750000000001</v>
+        <v>30.81875</v>
       </c>
       <c r="O206">
         <v>10</v>
       </c>
       <c r="P206">
-        <v>30.818750000000001</v>
-      </c>
-      <c r="R206">
-        <v>385.03750000000002</v>
-      </c>
-      <c r="S206">
-        <v>79.385714285714272</v>
+        <v>30.81875</v>
       </c>
       <c r="T206">
-        <v>84.887499999999989</v>
-      </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+        <v>84.88749999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
       <c r="A207" t="s">
         <v>223</v>
       </c>
@@ -12266,7 +10980,7 @@
         <v>11.25</v>
       </c>
       <c r="N207">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O207">
         <v>12.3</v>
@@ -12274,17 +10988,11 @@
       <c r="Q207">
         <v>23.21339285714286</v>
       </c>
-      <c r="R207">
-        <v>290.05000000000013</v>
-      </c>
-      <c r="S207">
-        <v>66.097857142857151</v>
-      </c>
       <c r="T207">
-        <v>70.839285714285722</v>
-      </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70.83928571428572</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
       <c r="A208" t="s">
         <v>224</v>
       </c>
@@ -12328,19 +11036,13 @@
         <v>6</v>
       </c>
       <c r="Q208">
-        <v>22.360892857142851</v>
-      </c>
-      <c r="R208">
-        <v>457.60000000000008</v>
-      </c>
-      <c r="S208">
-        <v>92.288749999999993</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T208">
-        <v>62.333035714285707</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.33303571428571</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
       <c r="A209" t="s">
         <v>225</v>
       </c>
@@ -12377,17 +11079,11 @@
       <c r="P209">
         <v>130.75</v>
       </c>
-      <c r="R209">
-        <v>381.53750000000002</v>
-      </c>
-      <c r="S209">
-        <v>86.367142857142852</v>
-      </c>
       <c r="T209">
         <v>282.95</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -12425,25 +11121,19 @@
         <v>13.4</v>
       </c>
       <c r="N210">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O210">
         <v>3</v>
       </c>
       <c r="Q210">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R210">
-        <v>241.875</v>
-      </c>
-      <c r="S210">
-        <v>57.21892857142857</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T210">
         <v>57.21892857142857</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20">
       <c r="A211" t="s">
         <v>227</v>
       </c>
@@ -12487,19 +11177,13 @@
         <v>6</v>
       </c>
       <c r="Q211">
-        <v>8.8066071428571426</v>
-      </c>
-      <c r="R211">
-        <v>128.13749999999999</v>
-      </c>
-      <c r="S211">
-        <v>39.805714285714288</v>
+        <v>8.806607142857143</v>
       </c>
       <c r="T211">
-        <v>40.805714285714288</v>
-      </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40.80571428571429</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" t="s">
         <v>228</v>
       </c>
@@ -12528,25 +11212,19 @@
         <v>5.75</v>
       </c>
       <c r="M212">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O212">
         <v>14.7</v>
       </c>
       <c r="P212">
-        <v>53.212499999999999</v>
-      </c>
-      <c r="R212">
-        <v>131.82499999999999</v>
-      </c>
-      <c r="S212">
-        <v>40.446964285714287</v>
+        <v>53.2125</v>
       </c>
       <c r="T212">
         <v>126.875</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20">
       <c r="A213" t="s">
         <v>229</v>
       </c>
@@ -12590,19 +11268,13 @@
         <v>11.35</v>
       </c>
       <c r="Q213">
-        <v>8.3803571428571431</v>
-      </c>
-      <c r="R213">
-        <v>58.612499999999997</v>
-      </c>
-      <c r="S213">
-        <v>33.293928571428573</v>
+        <v>8.380357142857143</v>
       </c>
       <c r="T213">
-        <v>39.246964285714277</v>
-      </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39.24696428571428</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" t="s">
         <v>230</v>
       </c>
@@ -12640,25 +11312,19 @@
         <v>7.7</v>
       </c>
       <c r="N214">
-        <v>9.0307142857142857</v>
+        <v>9.030714285714286</v>
       </c>
       <c r="O214">
         <v>7</v>
       </c>
       <c r="Q214">
-        <v>7.0132142857142856</v>
-      </c>
-      <c r="R214">
-        <v>52.962499999999999</v>
-      </c>
-      <c r="S214">
-        <v>30.79392857142857</v>
+        <v>7.013214285714286</v>
       </c>
       <c r="T214">
-        <v>30.743928571428569</v>
-      </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+        <v>30.74392857142857</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" t="s">
         <v>231</v>
       </c>
@@ -12687,25 +11353,19 @@
         <v>12.2</v>
       </c>
       <c r="M215">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O215">
         <v>12</v>
       </c>
       <c r="P215">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R215">
-        <v>140.47499999999999</v>
-      </c>
-      <c r="S215">
-        <v>38.796964285714289</v>
+        <v>14.98125</v>
       </c>
       <c r="T215">
-        <v>54.162499999999987</v>
-      </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+        <v>54.16249999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" t="s">
         <v>232</v>
       </c>
@@ -12743,7 +11403,7 @@
         <v>14.45</v>
       </c>
       <c r="N216">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O216">
         <v>7</v>
@@ -12751,17 +11411,11 @@
       <c r="Q216">
         <v>19.80339285714286</v>
       </c>
-      <c r="R216">
-        <v>106.7375</v>
-      </c>
-      <c r="S216">
-        <v>41.429285714285712</v>
-      </c>
       <c r="T216">
-        <v>64.504285714285714</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.50428571428571</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
       <c r="A217" t="s">
         <v>233</v>
       </c>
@@ -12799,25 +11453,19 @@
         <v>12</v>
       </c>
       <c r="N217">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O217">
         <v>11.6</v>
       </c>
       <c r="Q217">
-        <v>17.980535714285711</v>
-      </c>
-      <c r="R217">
-        <v>313.45</v>
-      </c>
-      <c r="S217">
-        <v>62.204285714285717</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T217">
-        <v>62.183571428571433</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.18357142857143</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
       <c r="A218" t="s">
         <v>234</v>
       </c>
@@ -12854,17 +11502,11 @@
       <c r="P218">
         <v>40.46875</v>
       </c>
-      <c r="R218">
-        <v>198.45</v>
-      </c>
-      <c r="S218">
-        <v>62.183571428571433</v>
-      </c>
       <c r="T218">
         <v>105.4875</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20">
       <c r="A219" t="s">
         <v>235</v>
       </c>
@@ -12899,28 +11541,22 @@
         <v>5.25</v>
       </c>
       <c r="L219">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="N219">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O219">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Q219">
         <v>19.34767857142857</v>
       </c>
-      <c r="R219">
-        <v>82.649999999999991</v>
-      </c>
-      <c r="S219">
-        <v>32.261607142857137</v>
-      </c>
       <c r="T219">
-        <v>59.686607142857142</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+        <v>59.68660714285714</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
       <c r="A220" t="s">
         <v>236</v>
       </c>
@@ -12958,25 +11594,19 @@
         <v>5</v>
       </c>
       <c r="N220">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O220">
         <v>10.65</v>
       </c>
       <c r="Q220">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R220">
-        <v>287.3125</v>
-      </c>
-      <c r="S220">
-        <v>61.086607142857147</v>
+        <v>18.43625</v>
       </c>
       <c r="T220">
         <v>57.85125</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20">
       <c r="A221" t="s">
         <v>237</v>
       </c>
@@ -13002,28 +11632,22 @@
         <v>15</v>
       </c>
       <c r="K221">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="M221">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O221">
         <v>18.2</v>
       </c>
       <c r="P221">
-        <v>27.724999999999991</v>
-      </c>
-      <c r="R221">
-        <v>227.88749999999999</v>
-      </c>
-      <c r="S221">
-        <v>59.10125</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T221">
-        <v>81.699999999999989</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+        <v>81.69999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
       <c r="A222" t="s">
         <v>238</v>
       </c>
@@ -13061,7 +11685,7 @@
         <v>10.5</v>
       </c>
       <c r="N222">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O222">
         <v>8.25</v>
@@ -13069,17 +11693,11 @@
       <c r="Q222">
         <v>23.21339285714286</v>
       </c>
-      <c r="R222">
-        <v>113.4875</v>
-      </c>
-      <c r="S222">
-        <v>41.179285714285712</v>
-      </c>
       <c r="T222">
-        <v>70.239285714285714</v>
-      </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70.23928571428571</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20">
       <c r="A223" t="s">
         <v>239</v>
       </c>
@@ -13117,7 +11735,7 @@
         <v>10.25</v>
       </c>
       <c r="N223">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O223">
         <v>7</v>
@@ -13125,17 +11743,11 @@
       <c r="Q223">
         <v>19.34767857142857</v>
       </c>
-      <c r="R223">
-        <v>456.1</v>
-      </c>
-      <c r="S223">
-        <v>92.888750000000002</v>
-      </c>
       <c r="T223">
-        <v>61.836607142857147</v>
-      </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.83660714285715</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20">
       <c r="A224" t="s">
         <v>240</v>
       </c>
@@ -13172,17 +11784,11 @@
       <c r="P224">
         <v>40.46875</v>
       </c>
-      <c r="R224">
-        <v>276.3125</v>
-      </c>
-      <c r="S224">
-        <v>59.53660714285715</v>
-      </c>
       <c r="T224">
         <v>111.3875</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20">
       <c r="A225" t="s">
         <v>241</v>
       </c>
@@ -13220,7 +11826,7 @@
         <v>14.2</v>
       </c>
       <c r="N225">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O225">
         <v>8.4</v>
@@ -13228,17 +11834,11 @@
       <c r="Q225">
         <v>19.34767857142857</v>
       </c>
-      <c r="R225">
-        <v>128.97499999999999</v>
-      </c>
-      <c r="S225">
-        <v>41.296964285714289</v>
-      </c>
       <c r="T225">
-        <v>64.536607142857136</v>
-      </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.53660714285714</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20">
       <c r="A226" t="s">
         <v>242</v>
       </c>
@@ -13270,7 +11870,7 @@
         <v>15</v>
       </c>
       <c r="K226">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L226">
         <v>9.1</v>
@@ -13284,17 +11884,11 @@
       <c r="Q226">
         <v>18.83303571428571</v>
       </c>
-      <c r="R226">
-        <v>282.01249999999999</v>
-      </c>
-      <c r="S226">
-        <v>63.086607142857147</v>
-      </c>
       <c r="T226">
-        <v>57.644821428571433</v>
-      </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+        <v>57.64482142857143</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20">
       <c r="A227" t="s">
         <v>243</v>
       </c>
@@ -13323,25 +11917,19 @@
         <v>8.5</v>
       </c>
       <c r="M227">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O227">
         <v>12.8</v>
       </c>
       <c r="P227">
-        <v>53.212499999999999</v>
-      </c>
-      <c r="R227">
-        <v>195.91249999999999</v>
-      </c>
-      <c r="S227">
-        <v>56.94482142857143</v>
+        <v>53.2125</v>
       </c>
       <c r="T227">
-        <v>127.72499999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+        <v>127.725</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20">
       <c r="A228" t="s">
         <v>244</v>
       </c>
@@ -13373,13 +11961,13 @@
         <v>15</v>
       </c>
       <c r="K228">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="L228">
         <v>6</v>
       </c>
       <c r="N228">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O228">
         <v>9.1</v>
@@ -13387,17 +11975,11 @@
       <c r="Q228">
         <v>23.21339285714286</v>
       </c>
-      <c r="R228">
-        <v>309.39999999999998</v>
-      </c>
-      <c r="S228">
-        <v>67.054285714285712</v>
-      </c>
       <c r="T228">
-        <v>65.439285714285717</v>
-      </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.43928571428572</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -13435,25 +12017,19 @@
         <v>14.9</v>
       </c>
       <c r="N229">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O229">
-        <v>7.4499999999999993</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="Q229">
         <v>19.80339285714286</v>
       </c>
-      <c r="R229">
-        <v>449.65</v>
-      </c>
-      <c r="S229">
-        <v>92.73875000000001</v>
-      </c>
       <c r="T229">
-        <v>65.404285714285706</v>
-      </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.40428571428571</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20">
       <c r="A230" t="s">
         <v>246</v>
       </c>
@@ -13482,25 +12058,19 @@
         <v>13.6</v>
       </c>
       <c r="M230">
-        <v>55.068749999999987</v>
+        <v>55.06874999999999</v>
       </c>
       <c r="O230">
         <v>17</v>
       </c>
       <c r="P230">
-        <v>55.068749999999987</v>
-      </c>
-      <c r="R230">
-        <v>135.63749999999999</v>
-      </c>
-      <c r="S230">
-        <v>37.655714285714282</v>
+        <v>55.06874999999999</v>
       </c>
       <c r="T230">
-        <v>140.73750000000001</v>
-      </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+        <v>140.7375</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20">
       <c r="A231" t="s">
         <v>247</v>
       </c>
@@ -13532,13 +12102,13 @@
         <v>0</v>
       </c>
       <c r="K231">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L231">
         <v>10.8</v>
       </c>
       <c r="N231">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O231">
         <v>6</v>
@@ -13546,17 +12116,11 @@
       <c r="Q231">
         <v>19.34767857142857</v>
       </c>
-      <c r="R231">
-        <v>130.07499999999999</v>
-      </c>
-      <c r="S231">
-        <v>33.846964285714293</v>
-      </c>
       <c r="T231">
-        <v>58.736607142857153</v>
-      </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+        <v>58.73660714285715</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20">
       <c r="A232" t="s">
         <v>248</v>
       </c>
@@ -13597,22 +12161,16 @@
         <v>11.01660714285714</v>
       </c>
       <c r="O232">
-        <v>7.4499999999999993</v>
+        <v>7.449999999999999</v>
       </c>
       <c r="Q232">
-        <v>8.3803571428571431</v>
-      </c>
-      <c r="R232">
-        <v>277.11250000000001</v>
-      </c>
-      <c r="S232">
-        <v>57.186607142857142</v>
+        <v>8.380357142857143</v>
       </c>
       <c r="T232">
-        <v>34.546964285714282</v>
-      </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+        <v>34.54696428571428</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20">
       <c r="A233" t="s">
         <v>249</v>
       </c>
@@ -13641,25 +12199,19 @@
         <v>10.85</v>
       </c>
       <c r="M233">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O233">
         <v>12</v>
       </c>
       <c r="P233">
-        <v>14.981249999999999</v>
-      </c>
-      <c r="R233">
-        <v>47.962499999999999</v>
-      </c>
-      <c r="S233">
-        <v>28.04392857142857</v>
+        <v>14.98125</v>
       </c>
       <c r="T233">
         <v>52.8125</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20">
       <c r="A234" t="s">
         <v>250</v>
       </c>
@@ -13697,7 +12249,7 @@
         <v>13.15</v>
       </c>
       <c r="N234">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O234">
         <v>7.75</v>
@@ -13705,17 +12257,11 @@
       <c r="Q234">
         <v>19.80339285714286</v>
       </c>
-      <c r="R234">
-        <v>309.00000000000011</v>
-      </c>
-      <c r="S234">
-        <v>63.954285714285717</v>
-      </c>
       <c r="T234">
-        <v>65.004285714285714</v>
-      </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65.00428571428571</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20">
       <c r="A235" t="s">
         <v>251</v>
       </c>
@@ -13752,17 +12298,11 @@
       <c r="P235">
         <v>82</v>
       </c>
-      <c r="R235">
-        <v>197.7</v>
-      </c>
-      <c r="S235">
-        <v>56.683571428571433</v>
-      </c>
       <c r="T235">
         <v>196.65</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20">
       <c r="A236" t="s">
         <v>252</v>
       </c>
@@ -13800,25 +12340,19 @@
         <v>15.7</v>
       </c>
       <c r="N236">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O236">
         <v>3</v>
       </c>
       <c r="Q236">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R236">
-        <v>28.137499999999999</v>
-      </c>
-      <c r="S236">
-        <v>17.193750000000001</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T236">
-        <v>59.518928571428567</v>
-      </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+        <v>59.51892857142857</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20">
       <c r="A237" t="s">
         <v>253</v>
       </c>
@@ -13856,25 +12390,19 @@
         <v>9.25</v>
       </c>
       <c r="N237">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O237">
         <v>10.3</v>
       </c>
       <c r="Q237">
-        <v>18.891964285714291</v>
-      </c>
-      <c r="R237">
-        <v>239.57499999999999</v>
-      </c>
-      <c r="S237">
-        <v>60.96892857142857</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T237">
-        <v>60.368928571428583</v>
-      </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.36892857142858</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20">
       <c r="A238" t="s">
         <v>254</v>
       </c>
@@ -13903,25 +12431,19 @@
         <v>14.2</v>
       </c>
       <c r="M238">
-        <v>2.4437500000000001</v>
+        <v>2.44375</v>
       </c>
       <c r="O238">
         <v>15.5</v>
       </c>
       <c r="P238">
-        <v>2.4437500000000001</v>
-      </c>
-      <c r="R238">
-        <v>252.47499999999999</v>
-      </c>
-      <c r="S238">
-        <v>60.368928571428583</v>
+        <v>2.44375</v>
       </c>
       <c r="T238">
-        <v>34.587499999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+        <v>34.5875</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20">
       <c r="A239" t="s">
         <v>255</v>
       </c>
@@ -13956,7 +12478,7 @@
         <v>15.5</v>
       </c>
       <c r="L239">
-        <v>17.649999999999999</v>
+        <v>17.65</v>
       </c>
       <c r="N239">
         <v>23.66339285714286</v>
@@ -13965,19 +12487,13 @@
         <v>6.5</v>
       </c>
       <c r="Q239">
-        <v>21.508392857142859</v>
-      </c>
-      <c r="R239">
-        <v>369.42500000000001</v>
-      </c>
-      <c r="S239">
-        <v>90.653392857142848</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T239">
         <v>69.32178571428571</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20">
       <c r="A240" t="s">
         <v>256</v>
       </c>
@@ -14015,25 +12531,19 @@
         <v>9.5</v>
       </c>
       <c r="N240">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O240">
         <v>4</v>
       </c>
       <c r="Q240">
-        <v>20.655892857142859</v>
-      </c>
-      <c r="R240">
-        <v>329.83749999999998</v>
-      </c>
-      <c r="S240">
-        <v>78.885714285714272</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T240">
-        <v>58.963035714285724</v>
-      </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+        <v>58.96303571428572</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20">
       <c r="A241" t="s">
         <v>257</v>
       </c>
@@ -14062,25 +12572,19 @@
         <v>6</v>
       </c>
       <c r="M241">
-        <v>161.39375000000001</v>
+        <v>161.39375</v>
       </c>
       <c r="O241">
         <v>14</v>
       </c>
       <c r="P241">
-        <v>161.39375000000001</v>
-      </c>
-      <c r="R241">
-        <v>341.3125</v>
-      </c>
-      <c r="S241">
-        <v>85.635714285714272</v>
+        <v>161.39375</v>
       </c>
       <c r="T241">
-        <v>342.78750000000002</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+        <v>342.7875</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20">
       <c r="A242" t="s">
         <v>258</v>
       </c>
@@ -14118,7 +12622,7 @@
         <v>8</v>
       </c>
       <c r="N242">
-        <v>22.985714285714291</v>
+        <v>22.98571428571429</v>
       </c>
       <c r="O242">
         <v>7.7</v>
@@ -14126,17 +12630,11 @@
       <c r="Q242">
         <v>19.74446428571429</v>
       </c>
-      <c r="R242">
-        <v>207.78749999999999</v>
-      </c>
-      <c r="S242">
-        <v>56.251249999999999</v>
-      </c>
       <c r="T242">
-        <v>63.330178571428583</v>
-      </c>
-    </row>
-    <row r="243" spans="1:20" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63.33017857142858</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -14174,25 +12672,19 @@
         <v>15.5</v>
       </c>
       <c r="N243">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O243">
         <v>5</v>
       </c>
       <c r="Q243">
-        <v>18.436250000000001</v>
-      </c>
-      <c r="R243">
-        <v>257.28750000000002</v>
-      </c>
-      <c r="S243">
-        <v>65.93017857142857</v>
+        <v>18.43625</v>
       </c>
       <c r="T243">
-        <v>60.201250000000002</v>
-      </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.20125</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20">
       <c r="A244" t="s">
         <v>260</v>
       </c>
@@ -14221,19 +12713,19 @@
         <v>7.25</v>
       </c>
       <c r="M244">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="O244">
         <v>18.8</v>
       </c>
       <c r="P244">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="T244">
-        <v>218.83750000000001</v>
-      </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+        <v>218.8375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20">
       <c r="A245" t="s">
         <v>261</v>
       </c>
@@ -14271,7 +12763,7 @@
         <v>15.4</v>
       </c>
       <c r="N245">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O245">
         <v>7.35</v>
@@ -14280,10 +12772,10 @@
         <v>23.21339285714286</v>
       </c>
       <c r="T245">
-        <v>70.039285714285711</v>
-      </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70.03928571428571</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -14321,19 +12813,19 @@
         <v>12.05</v>
       </c>
       <c r="N246">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O246">
         <v>7.7</v>
       </c>
       <c r="Q246">
-        <v>18.891964285714291</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T246">
-        <v>60.568928571428579</v>
-      </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.56892857142858</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20">
       <c r="A247" t="s">
         <v>263</v>
       </c>
@@ -14362,19 +12854,19 @@
         <v>8.5</v>
       </c>
       <c r="M247">
-        <v>68.018749999999997</v>
+        <v>68.01875</v>
       </c>
       <c r="O247">
         <v>11.4</v>
       </c>
       <c r="P247">
-        <v>68.018749999999997</v>
+        <v>68.01875</v>
       </c>
       <c r="T247">
         <v>155.9375</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20">
       <c r="A248" t="s">
         <v>264</v>
       </c>
@@ -14412,7 +12904,7 @@
         <v>10.1</v>
       </c>
       <c r="N248">
-        <v>23.250892857142858</v>
+        <v>23.25089285714286</v>
       </c>
       <c r="O248">
         <v>7.8</v>
@@ -14421,10 +12913,10 @@
         <v>19.80339285714286</v>
       </c>
       <c r="T248">
-        <v>61.704285714285717</v>
-      </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.70428571428572</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20">
       <c r="A249" t="s">
         <v>265</v>
       </c>
@@ -14465,16 +12957,16 @@
         <v>9.692678571428571</v>
       </c>
       <c r="O249">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="Q249">
-        <v>7.4689285714285711</v>
+        <v>7.468928571428571</v>
       </c>
       <c r="T249">
-        <v>37.161607142857143</v>
-      </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+        <v>37.16160714285714</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20">
       <c r="A250" t="s">
         <v>266</v>
       </c>
@@ -14503,19 +12995,19 @@
         <v>6</v>
       </c>
       <c r="M250">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O250">
         <v>16</v>
       </c>
       <c r="P250">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="T250">
-        <v>51.962499999999999</v>
-      </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+        <v>51.9625</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20">
       <c r="A251" t="s">
         <v>263</v>
       </c>
@@ -14559,13 +13051,13 @@
         <v>5.7</v>
       </c>
       <c r="Q251">
-        <v>8.8066071428571426</v>
+        <v>8.806607142857143</v>
       </c>
       <c r="T251">
-        <v>34.655714285714282</v>
-      </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+        <v>34.65571428571428</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -14600,7 +13092,7 @@
         <v>8.4</v>
       </c>
       <c r="L252">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="N252">
         <v>10.35464285714286</v>
@@ -14609,13 +13101,13 @@
         <v>7.75</v>
       </c>
       <c r="Q252">
-        <v>7.9246428571428567</v>
+        <v>7.924642857142857</v>
       </c>
       <c r="T252">
-        <v>35.079285714285717</v>
-      </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+        <v>35.07928571428572</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20">
       <c r="A253" t="s">
         <v>268</v>
       </c>
@@ -14644,19 +13136,19 @@
         <v>8.5</v>
       </c>
       <c r="M253">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O253">
         <v>10</v>
       </c>
       <c r="P253">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T253">
-        <v>73.949999999999989</v>
-      </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+        <v>73.94999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20">
       <c r="A254" t="s">
         <v>269</v>
       </c>
@@ -14691,7 +13183,7 @@
         <v>7.25</v>
       </c>
       <c r="L254">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N254">
         <v>23.86964285714286</v>
@@ -14700,13 +13192,13 @@
         <v>7</v>
       </c>
       <c r="Q254">
-        <v>22.360892857142851</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T254">
         <v>61.93053571428571</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20">
       <c r="A255" t="s">
         <v>270</v>
       </c>
@@ -14744,19 +13236,19 @@
         <v>10.15</v>
       </c>
       <c r="N255">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O255">
         <v>8.4</v>
       </c>
       <c r="Q255">
-        <v>20.655892857142859</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T255">
-        <v>66.363035714285715</v>
-      </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.36303571428572</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -14794,10 +13286,10 @@
         <v>84.68125000000002</v>
       </c>
       <c r="T256">
-        <v>189.36250000000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+        <v>189.3625</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20">
       <c r="A257" t="s">
         <v>272</v>
       </c>
@@ -14835,7 +13327,7 @@
         <v>13.55</v>
       </c>
       <c r="N257">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O257">
         <v>8</v>
@@ -14844,10 +13336,10 @@
         <v>23.21339285714286</v>
       </c>
       <c r="T257">
-        <v>68.839285714285722</v>
-      </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68.83928571428572</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20">
       <c r="A258" t="s">
         <v>273</v>
       </c>
@@ -14891,13 +13383,13 @@
         <v>6</v>
       </c>
       <c r="Q258">
-        <v>21.508392857142859</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T258">
-        <v>60.521785714285713</v>
-      </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.52178571428571</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20">
       <c r="A259" t="s">
         <v>274</v>
       </c>
@@ -14926,19 +13418,19 @@
         <v>8.5</v>
       </c>
       <c r="M259">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O259">
         <v>24</v>
       </c>
       <c r="P259">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="T259">
-        <v>62.462499999999999</v>
-      </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.4625</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20">
       <c r="A260" t="s">
         <v>275</v>
       </c>
@@ -14976,7 +13468,7 @@
         <v>14.35</v>
       </c>
       <c r="N260">
-        <v>24.075892857142861</v>
+        <v>24.07589285714286</v>
       </c>
       <c r="O260">
         <v>5</v>
@@ -14985,10 +13477,10 @@
         <v>23.21339285714286</v>
       </c>
       <c r="T260">
-        <v>66.639285714285705</v>
-      </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.63928571428571</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20">
       <c r="A261" t="s">
         <v>276</v>
       </c>
@@ -15032,13 +13524,13 @@
         <v>5</v>
       </c>
       <c r="Q261">
-        <v>22.360892857142851</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T261">
-        <v>64.880535714285713</v>
-      </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.88053571428571</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20">
       <c r="A262" t="s">
         <v>277</v>
       </c>
@@ -15064,22 +13556,22 @@
         <v>15</v>
       </c>
       <c r="K262">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="M262">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="O262">
         <v>11.4</v>
       </c>
       <c r="P262">
-        <v>53.212499999999999</v>
+        <v>53.2125</v>
       </c>
       <c r="T262">
-        <v>127.27500000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+        <v>127.275</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20">
       <c r="A263" t="s">
         <v>278</v>
       </c>
@@ -15123,13 +13615,13 @@
         <v>7.25</v>
       </c>
       <c r="Q263">
-        <v>21.508392857142859</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T263">
-        <v>66.371785714285707</v>
-      </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.37178571428571</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20">
       <c r="A264" t="s">
         <v>279</v>
       </c>
@@ -15173,13 +13665,13 @@
         <v>5</v>
       </c>
       <c r="Q264">
-        <v>8.3508928571428562</v>
+        <v>8.350892857142856</v>
       </c>
       <c r="T264">
-        <v>39.138035714285706</v>
-      </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39.13803571428571</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20">
       <c r="A265" t="s">
         <v>280</v>
       </c>
@@ -15208,19 +13700,19 @@
         <v>5</v>
       </c>
       <c r="M265">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O265">
         <v>12</v>
       </c>
       <c r="P265">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="T265">
-        <v>46.962499999999999</v>
-      </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+        <v>46.9625</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20">
       <c r="A266" t="s">
         <v>281</v>
       </c>
@@ -15261,16 +13753,16 @@
         <v>11.01660714285714</v>
       </c>
       <c r="O266">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q266">
-        <v>8.3803571428571431</v>
+        <v>8.380357142857143</v>
       </c>
       <c r="T266">
-        <v>40.246964285714277</v>
-      </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40.24696428571428</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20">
       <c r="A267" t="s">
         <v>282</v>
       </c>
@@ -15305,7 +13797,7 @@
         <v>11.05</v>
       </c>
       <c r="L267">
-        <v>8.0500000000000007</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="N267">
         <v>10.35464285714286</v>
@@ -15314,13 +13806,13 @@
         <v>11.85</v>
       </c>
       <c r="Q267">
-        <v>7.9246428571428567</v>
+        <v>7.924642857142857</v>
       </c>
       <c r="T267">
-        <v>41.179285714285712</v>
-      </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+        <v>41.17928571428571</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20">
       <c r="A268" t="s">
         <v>283</v>
       </c>
@@ -15349,19 +13841,19 @@
         <v>6</v>
       </c>
       <c r="M268">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O268">
         <v>16.7</v>
       </c>
       <c r="P268">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T268">
-        <v>78.149999999999991</v>
-      </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+        <v>78.14999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20">
       <c r="A269" t="s">
         <v>284</v>
       </c>
@@ -15399,19 +13891,19 @@
         <v>13.05</v>
       </c>
       <c r="N269">
-        <v>23.457142857142859</v>
+        <v>23.45714285714286</v>
       </c>
       <c r="O269">
         <v>7.25</v>
       </c>
       <c r="Q269">
-        <v>20.655892857142859</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T269">
-        <v>64.563035714285718</v>
-      </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.56303571428572</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20">
       <c r="A270" t="s">
         <v>285</v>
       </c>
@@ -15449,7 +13941,7 @@
         <v>12.6</v>
       </c>
       <c r="N270">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O270">
         <v>8.75</v>
@@ -15461,7 +13953,7 @@
         <v>63.28660714285715</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20">
       <c r="A271" t="s">
         <v>286</v>
       </c>
@@ -15490,19 +13982,19 @@
         <v>12.75</v>
       </c>
       <c r="M271">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="O271">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="P271">
-        <v>96.393750000000011</v>
+        <v>96.39375000000001</v>
       </c>
       <c r="T271">
-        <v>223.63749999999999</v>
-      </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+        <v>223.6375</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20">
       <c r="A272" t="s">
         <v>287</v>
       </c>
@@ -15540,19 +14032,19 @@
         <v>13.6</v>
       </c>
       <c r="N272">
-        <v>21.265000000000001</v>
+        <v>21.265</v>
       </c>
       <c r="O272">
         <v>12.25</v>
       </c>
       <c r="Q272">
-        <v>18.436250000000001</v>
+        <v>18.43625</v>
       </c>
       <c r="T272">
         <v>65.55125000000001</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20">
       <c r="A273" t="s">
         <v>288</v>
       </c>
@@ -15590,19 +14082,19 @@
         <v>15.05</v>
       </c>
       <c r="N273">
-        <v>12.914107142857141</v>
+        <v>12.91410714285714</v>
       </c>
       <c r="O273">
         <v>6</v>
       </c>
       <c r="Q273">
-        <v>9.6591071428571418</v>
+        <v>9.659107142857142</v>
       </c>
       <c r="T273">
-        <v>43.623214285714283</v>
-      </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+        <v>43.62321428571428</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20">
       <c r="A274" t="s">
         <v>289</v>
       </c>
@@ -15631,19 +14123,19 @@
         <v>7.25</v>
       </c>
       <c r="M274">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="O274">
         <v>18</v>
       </c>
       <c r="P274">
-        <v>27.724999999999991</v>
+        <v>27.72499999999999</v>
       </c>
       <c r="T274">
-        <v>80.699999999999989</v>
-      </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+        <v>80.69999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20">
       <c r="A275" t="s">
         <v>290</v>
       </c>
@@ -15681,19 +14173,19 @@
         <v>9.5</v>
       </c>
       <c r="N275">
-        <v>11.678571428571431</v>
+        <v>11.67857142857143</v>
       </c>
       <c r="O275">
         <v>7</v>
       </c>
       <c r="Q275">
-        <v>8.8360714285714295</v>
+        <v>8.836071428571429</v>
       </c>
       <c r="T275">
-        <v>38.664642857142859</v>
-      </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+        <v>38.66464285714286</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20">
       <c r="A276" t="s">
         <v>291</v>
       </c>
@@ -15737,13 +14229,13 @@
         <v>6</v>
       </c>
       <c r="Q276">
-        <v>7.9246428571428567</v>
+        <v>7.924642857142857</v>
       </c>
       <c r="T276">
-        <v>34.929285714285712</v>
-      </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+        <v>34.92928571428571</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20">
       <c r="A277" t="s">
         <v>292</v>
       </c>
@@ -15772,19 +14264,19 @@
         <v>6</v>
       </c>
       <c r="M277">
-        <v>28.756250000000001</v>
+        <v>28.75625</v>
       </c>
       <c r="O277">
         <v>14</v>
       </c>
       <c r="P277">
-        <v>28.756250000000001</v>
+        <v>28.75625</v>
       </c>
       <c r="T277">
-        <v>77.512499999999989</v>
-      </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+        <v>77.51249999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20">
       <c r="A278" t="s">
         <v>293</v>
       </c>
@@ -15822,19 +14314,19 @@
         <v>13.6</v>
       </c>
       <c r="N278">
-        <v>20.603035714285721</v>
+        <v>20.60303571428572</v>
       </c>
       <c r="O278">
         <v>8</v>
       </c>
       <c r="Q278">
-        <v>17.980535714285711</v>
+        <v>17.98053571428571</v>
       </c>
       <c r="T278">
-        <v>60.183571428571433</v>
-      </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+        <v>60.18357142857143</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20">
       <c r="A279" t="s">
         <v>294</v>
       </c>
@@ -15875,16 +14367,16 @@
         <v>10.35464285714286</v>
       </c>
       <c r="O279">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q279">
-        <v>7.9246428571428567</v>
+        <v>7.924642857142857</v>
       </c>
       <c r="T279">
-        <v>39.379285714285707</v>
-      </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39.37928571428571</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20">
       <c r="A280" t="s">
         <v>295</v>
       </c>
@@ -15913,19 +14405,19 @@
         <v>11</v>
       </c>
       <c r="M280">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O280">
         <v>14</v>
       </c>
       <c r="P280">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="T280">
-        <v>29.475000000000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+        <v>29.475</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20">
       <c r="A281" t="s">
         <v>296</v>
       </c>
@@ -15963,19 +14455,19 @@
         <v>9.4</v>
       </c>
       <c r="N281">
-        <v>21.926964285714281</v>
+        <v>21.92696428571428</v>
       </c>
       <c r="O281">
         <v>8</v>
       </c>
       <c r="Q281">
-        <v>18.891964285714291</v>
+        <v>18.89196428571429</v>
       </c>
       <c r="T281">
         <v>58.21892857142857</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20">
       <c r="A282" t="s">
         <v>297</v>
       </c>
@@ -16004,19 +14496,19 @@
         <v>11.2</v>
       </c>
       <c r="M282">
-        <v>68.018749999999997</v>
+        <v>68.01875</v>
       </c>
       <c r="O282">
         <v>10</v>
       </c>
       <c r="P282">
-        <v>68.018749999999997</v>
+        <v>68.01875</v>
       </c>
       <c r="T282">
-        <v>157.23750000000001</v>
-      </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+        <v>157.2375</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20">
       <c r="A283" t="s">
         <v>298</v>
       </c>
@@ -16060,13 +14552,13 @@
         <v>11.2</v>
       </c>
       <c r="Q283">
-        <v>22.360892857142851</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T283">
         <v>67.68053571428571</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20">
       <c r="A284" t="s">
         <v>299</v>
       </c>
@@ -16104,19 +14596,19 @@
         <v>10.5</v>
       </c>
       <c r="N284">
-        <v>9.0307142857142857</v>
+        <v>9.030714285714286</v>
       </c>
       <c r="O284">
         <v>7.75</v>
       </c>
       <c r="Q284">
-        <v>7.0132142857142856</v>
+        <v>7.013214285714286</v>
       </c>
       <c r="T284">
-        <v>34.293928571428573</v>
-      </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+        <v>34.29392857142857</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20">
       <c r="A285" t="s">
         <v>300</v>
       </c>
@@ -16145,19 +14637,19 @@
         <v>15.15</v>
       </c>
       <c r="M285">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O285">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="P285">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="T285">
-        <v>64.012499999999989</v>
-      </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64.01249999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20">
       <c r="A286" t="s">
         <v>301</v>
       </c>
@@ -16195,19 +14687,19 @@
         <v>12.95</v>
       </c>
       <c r="N286">
-        <v>25.574642857142859</v>
+        <v>25.57464285714286</v>
       </c>
       <c r="O286">
         <v>5.5</v>
       </c>
       <c r="Q286">
-        <v>22.360892857142851</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T286">
-        <v>66.385535714285709</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.38553571428571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20">
       <c r="A287" t="s">
         <v>302</v>
       </c>
@@ -16245,7 +14737,7 @@
         <v>8</v>
       </c>
       <c r="N287">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O287">
         <v>7</v>
@@ -16254,10 +14746,10 @@
         <v>19.34767857142857</v>
       </c>
       <c r="T287">
-        <v>56.936607142857142</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+        <v>56.93660714285714</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20">
       <c r="A288" t="s">
         <v>303</v>
       </c>
@@ -16286,19 +14778,19 @@
         <v>6</v>
       </c>
       <c r="M288">
-        <v>92.725000000000009</v>
+        <v>92.72500000000001</v>
       </c>
       <c r="O288">
         <v>16.7</v>
       </c>
       <c r="P288">
-        <v>92.725000000000009</v>
+        <v>92.72500000000001</v>
       </c>
       <c r="T288">
         <v>208.15</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20">
       <c r="A289" t="s">
         <v>304</v>
       </c>
@@ -16336,7 +14828,7 @@
         <v>13.9</v>
       </c>
       <c r="N289">
-        <v>25.780892857142859</v>
+        <v>25.78089285714286</v>
       </c>
       <c r="O289">
         <v>7.75</v>
@@ -16345,10 +14837,10 @@
         <v>23.21339285714286</v>
       </c>
       <c r="T289">
-        <v>70.944285714285712</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70.94428571428571</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20">
       <c r="A290" t="s">
         <v>305</v>
       </c>
@@ -16386,19 +14878,19 @@
         <v>11</v>
       </c>
       <c r="N290">
-        <v>24.515892857142859</v>
+        <v>24.51589285714286</v>
       </c>
       <c r="O290">
         <v>8.25</v>
       </c>
       <c r="Q290">
-        <v>21.508392857142859</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T290">
-        <v>69.174285714285716</v>
-      </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69.17428571428572</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20">
       <c r="A291" t="s">
         <v>306</v>
       </c>
@@ -16439,7 +14931,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20">
       <c r="A292" t="s">
         <v>307</v>
       </c>
@@ -16477,19 +14969,19 @@
         <v>7.75</v>
       </c>
       <c r="N292">
-        <v>24.515892857142859</v>
+        <v>24.51589285714286</v>
       </c>
       <c r="O292">
         <v>6</v>
       </c>
       <c r="Q292">
-        <v>21.508392857142859</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T292">
-        <v>62.874285714285719</v>
-      </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+        <v>62.87428571428572</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20">
       <c r="A293" t="s">
         <v>308</v>
       </c>
@@ -16527,19 +15019,19 @@
         <v>13.25</v>
       </c>
       <c r="N293">
-        <v>12.855178571428571</v>
+        <v>12.85517857142857</v>
       </c>
       <c r="O293">
         <v>8</v>
       </c>
       <c r="Q293">
-        <v>9.6001785714285717</v>
+        <v>9.600178571428572</v>
       </c>
       <c r="T293">
-        <v>43.705357142857153</v>
-      </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+        <v>43.70535714285715</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20">
       <c r="A294" t="s">
         <v>309</v>
       </c>
@@ -16568,19 +15060,19 @@
         <v>8</v>
       </c>
       <c r="M294">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="O294">
         <v>12</v>
       </c>
       <c r="P294">
-        <v>2.2374999999999998</v>
+        <v>2.2375</v>
       </c>
       <c r="T294">
-        <v>24.475000000000001</v>
-      </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+        <v>24.475</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20">
       <c r="A295" t="s">
         <v>310</v>
       </c>
@@ -16624,13 +15116,13 @@
         <v>7</v>
       </c>
       <c r="Q295">
-        <v>22.360892857142851</v>
+        <v>22.36089285714285</v>
       </c>
       <c r="T295">
-        <v>66.730535714285708</v>
-      </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.73053571428571</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20">
       <c r="A296" t="s">
         <v>311</v>
       </c>
@@ -16668,19 +15160,19 @@
         <v>8</v>
       </c>
       <c r="N296">
-        <v>25.368392857142862</v>
+        <v>25.36839285714286</v>
       </c>
       <c r="O296">
         <v>7</v>
       </c>
       <c r="Q296">
-        <v>21.508392857142859</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T296">
-        <v>61.876785714285717</v>
-      </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.87678571428572</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20">
       <c r="A297" t="s">
         <v>312</v>
       </c>
@@ -16721,7 +15213,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20">
       <c r="A298" t="s">
         <v>313</v>
       </c>
@@ -16759,7 +15251,7 @@
         <v>14.95</v>
       </c>
       <c r="N298">
-        <v>22.588928571428571</v>
+        <v>22.58892857142857</v>
       </c>
       <c r="O298">
         <v>5</v>
@@ -16768,10 +15260,10 @@
         <v>19.34767857142857</v>
       </c>
       <c r="T298">
-        <v>61.886607142857137</v>
-      </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61.88660714285714</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20">
       <c r="A299" t="s">
         <v>314</v>
       </c>
@@ -16815,13 +15307,13 @@
         <v>8.5</v>
       </c>
       <c r="Q299">
-        <v>7.9246428571428567</v>
+        <v>7.924642857142857</v>
       </c>
       <c r="T299">
-        <v>39.879285714285707</v>
-      </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39.87928571428571</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20">
       <c r="A300" t="s">
         <v>315</v>
       </c>
@@ -16850,19 +15342,19 @@
         <v>8</v>
       </c>
       <c r="M300">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="O300">
         <v>12</v>
       </c>
       <c r="P300">
-        <v>14.981249999999999</v>
+        <v>14.98125</v>
       </c>
       <c r="T300">
-        <v>49.962499999999999</v>
-      </c>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+        <v>49.9625</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20">
       <c r="A301" t="s">
         <v>316</v>
       </c>
@@ -16906,13 +15398,13 @@
         <v>7</v>
       </c>
       <c r="Q301">
-        <v>21.508392857142859</v>
+        <v>21.50839285714286</v>
       </c>
       <c r="T301">
-        <v>66.971785714285716</v>
-      </c>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66.97178571428572</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20">
       <c r="A302" t="s">
         <v>317</v>
       </c>
@@ -16950,16 +15442,16 @@
         <v>16.25</v>
       </c>
       <c r="N302">
-        <v>24.309642857142862</v>
+        <v>24.30964285714286</v>
       </c>
       <c r="O302">
         <v>9</v>
       </c>
       <c r="Q302">
-        <v>20.655892857142859</v>
+        <v>20.65589285714286</v>
       </c>
       <c r="T302">
-        <v>70.215535714285721</v>
+        <v>70.21553571428572</v>
       </c>
     </row>
   </sheetData>
